--- a/DataSets/TradeBlotterFX.xlsx
+++ b/DataSets/TradeBlotterFX.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adaptable Samples\AdaptableSamples\FXTrade\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/adaptableblotter-demo/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37470" windowHeight="16350"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37480" windowHeight="16360"/>
   </bookViews>
   <sheets>
     <sheet name="FXTrade" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="62">
   <si>
     <t>TradeId</t>
   </si>
@@ -543,26 +549,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="21" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +616,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -649,7 +659,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -692,16 +702,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>42148</v>
+        <v>42515</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="1"/>
-        <v>42149</v>
+        <v>42516</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
@@ -735,16 +745,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>42357</v>
+        <v>42358</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
-        <v>42358</v>
+        <v>42359</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>54</v>
@@ -778,16 +788,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>42449</v>
+        <v>42450</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
-        <v>42450</v>
+        <v>42451</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>54</v>
@@ -821,16 +831,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>42288</v>
+        <v>42289</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
-        <v>42289</v>
+        <v>42290</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>46</v>
@@ -864,7 +874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -907,7 +917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -950,7 +960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1036,7 +1046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1079,7 +1089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1122,7 +1132,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1165,7 +1175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1208,7 +1218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1294,7 +1304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1337,7 +1347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1380,7 +1390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1466,7 +1476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1509,7 +1519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1552,7 +1562,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1638,7 +1648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1681,7 +1691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1724,7 +1734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1767,7 +1777,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1810,7 +1820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1853,7 +1863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1896,7 +1906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1939,7 +1949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2025,7 +2035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2068,7 +2078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2111,7 +2121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2154,7 +2164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2197,7 +2207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2240,7 +2250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2283,7 +2293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2326,7 +2336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2369,7 +2379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2455,7 +2465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2498,7 +2508,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2541,7 +2551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2584,7 +2594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2627,7 +2637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2670,7 +2680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2713,7 +2723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2756,7 +2766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2799,7 +2809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2842,7 +2852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2885,7 +2895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2928,7 +2938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2971,7 +2981,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3014,7 +3024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3057,7 +3067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3100,7 +3110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3143,7 +3153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3186,7 +3196,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3229,7 +3239,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3272,7 +3282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3315,7 +3325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3358,7 +3368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3401,7 +3411,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3444,7 +3454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3487,7 +3497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3530,7 +3540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3573,7 +3583,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3616,7 +3626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3659,7 +3669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3702,7 +3712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3745,7 +3755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3788,7 +3798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3831,7 +3841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3874,7 +3884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3917,7 +3927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3960,7 +3970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4003,7 +4013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4046,7 +4056,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4071,10 +4081,10 @@
       </c>
       <c r="H82" s="5">
         <f t="shared" si="3"/>
-        <v>63175000</v>
+        <v>75000000</v>
       </c>
       <c r="I82">
-        <v>1.2635000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="K82" t="s">
         <v>21</v>
@@ -4089,7 +4099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4175,7 +4185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4218,7 +4228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4261,7 +4271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4304,7 +4314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4347,7 +4357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4390,7 +4400,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4433,7 +4443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4476,7 +4486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4519,7 +4529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4562,7 +4572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4605,7 +4615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4648,7 +4658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4691,7 +4701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4734,7 +4744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4758,7 +4768,7 @@
         <v>41</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" ref="H98:H129" si="5">SUM(F98*I98*-1)</f>
+        <f t="shared" ref="H98:H123" si="5">SUM(F98*I98*-1)</f>
         <v>787600</v>
       </c>
       <c r="I98">
@@ -4777,7 +4787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4820,7 +4830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4863,7 +4873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4904,6 +4914,952 @@
       </c>
       <c r="N101" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>42504</v>
+      </c>
+      <c r="C102" s="3">
+        <f>SUM(B102+1)</f>
+        <v>42505</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="5">
+        <v>-50000000</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="5">
+        <f t="shared" si="5"/>
+        <v>56520000</v>
+      </c>
+      <c r="I102">
+        <v>1.1304000000000001</v>
+      </c>
+      <c r="K102" t="s">
+        <v>21</v>
+      </c>
+      <c r="L102" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M102" t="s">
+        <v>14</v>
+      </c>
+      <c r="N102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>42513</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" ref="C103:C123" si="6">SUM(B103+1)</f>
+        <v>42514</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="5">
+        <f t="shared" si="5"/>
+        <v>-1435200</v>
+      </c>
+      <c r="I103">
+        <v>1.4352</v>
+      </c>
+      <c r="K103" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M103" t="s">
+        <v>37</v>
+      </c>
+      <c r="N103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>42519</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="6"/>
+        <v>42520</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F104" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="5">
+        <f t="shared" si="5"/>
+        <v>-14352</v>
+      </c>
+      <c r="I104">
+        <v>1.4352</v>
+      </c>
+      <c r="K104" t="s">
+        <v>39</v>
+      </c>
+      <c r="L104" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M104" t="s">
+        <v>40</v>
+      </c>
+      <c r="N104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>42532</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="6"/>
+        <v>42533</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" s="5">
+        <v>-10000</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H105" s="5">
+        <f t="shared" si="5"/>
+        <v>1239075</v>
+      </c>
+      <c r="I105">
+        <v>123.9075</v>
+      </c>
+      <c r="K105" t="s">
+        <v>33</v>
+      </c>
+      <c r="L105" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M105" t="s">
+        <v>34</v>
+      </c>
+      <c r="N105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>42572</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" si="6"/>
+        <v>42573</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" s="5">
+        <v>-50000000</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H106" s="5">
+        <f t="shared" si="5"/>
+        <v>39380000</v>
+      </c>
+      <c r="I106">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="K106" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M106" t="s">
+        <v>22</v>
+      </c>
+      <c r="N106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <v>42586</v>
+      </c>
+      <c r="C107" s="3">
+        <f t="shared" si="6"/>
+        <v>42587</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F107" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="5">
+        <f t="shared" si="5"/>
+        <v>-56520000</v>
+      </c>
+      <c r="I107">
+        <v>1.1304000000000001</v>
+      </c>
+      <c r="K107" t="s">
+        <v>19</v>
+      </c>
+      <c r="L107" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M107" t="s">
+        <v>22</v>
+      </c>
+      <c r="N107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" si="6"/>
+        <v>42594</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" s="5">
+        <v>500000</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="5">
+        <f t="shared" si="5"/>
+        <v>-717600</v>
+      </c>
+      <c r="I108">
+        <v>1.4352</v>
+      </c>
+      <c r="K108" t="s">
+        <v>17</v>
+      </c>
+      <c r="L108" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M108" t="s">
+        <v>18</v>
+      </c>
+      <c r="N108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C109" s="3">
+        <f t="shared" si="6"/>
+        <v>42635</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" s="5">
+        <v>500000</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="5">
+        <f t="shared" si="5"/>
+        <v>-565200</v>
+      </c>
+      <c r="I109">
+        <v>1.1304000000000001</v>
+      </c>
+      <c r="K109" t="s">
+        <v>23</v>
+      </c>
+      <c r="L109" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M109" t="s">
+        <v>24</v>
+      </c>
+      <c r="N109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>42654</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" si="6"/>
+        <v>42655</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" s="5">
+        <f t="shared" si="5"/>
+        <v>-1130400</v>
+      </c>
+      <c r="I110">
+        <v>1.1304000000000001</v>
+      </c>
+      <c r="K110" t="s">
+        <v>4</v>
+      </c>
+      <c r="L110" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M110" t="s">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>42662</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" si="6"/>
+        <v>42663</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111" s="5">
+        <v>-1000000</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H111" s="5">
+        <f t="shared" si="5"/>
+        <v>787600</v>
+      </c>
+      <c r="I111">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="K111" t="s">
+        <v>36</v>
+      </c>
+      <c r="L111" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M111" t="s">
+        <v>37</v>
+      </c>
+      <c r="N111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>42674</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" si="6"/>
+        <v>42675</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" s="5">
+        <v>-10000</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H112" s="5">
+        <f t="shared" si="5"/>
+        <v>7876</v>
+      </c>
+      <c r="I112">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="K112" t="s">
+        <v>27</v>
+      </c>
+      <c r="L112" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M112" t="s">
+        <v>35</v>
+      </c>
+      <c r="N112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>42679</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" si="6"/>
+        <v>42680</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="5">
+        <f t="shared" si="5"/>
+        <v>-11304</v>
+      </c>
+      <c r="I113">
+        <v>1.1304000000000001</v>
+      </c>
+      <c r="K113" t="s">
+        <v>7</v>
+      </c>
+      <c r="L113" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M113" t="s">
+        <v>8</v>
+      </c>
+      <c r="N113" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>42688</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" si="6"/>
+        <v>42689</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F114" s="5">
+        <v>500000</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="5">
+        <f t="shared" si="5"/>
+        <v>-648100</v>
+      </c>
+      <c r="I114">
+        <v>1.2962</v>
+      </c>
+      <c r="K114" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M114" t="s">
+        <v>10</v>
+      </c>
+      <c r="N114" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>42703</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" si="6"/>
+        <v>42704</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" s="5">
+        <v>-500000</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H115" s="5">
+        <f t="shared" si="5"/>
+        <v>393800</v>
+      </c>
+      <c r="I115">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="K115" t="s">
+        <v>9</v>
+      </c>
+      <c r="L115" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M115" t="s">
+        <v>10</v>
+      </c>
+      <c r="N115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>42708</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" si="6"/>
+        <v>42709</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" s="5">
+        <v>500000</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="5">
+        <f t="shared" si="5"/>
+        <v>-717600</v>
+      </c>
+      <c r="I116">
+        <v>1.4352</v>
+      </c>
+      <c r="K116" t="s">
+        <v>23</v>
+      </c>
+      <c r="L116" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M116" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>42716</v>
+      </c>
+      <c r="C117" s="3">
+        <f t="shared" si="6"/>
+        <v>42717</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" s="5">
+        <v>-1000000</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H117" s="5">
+        <f t="shared" si="5"/>
+        <v>986500</v>
+      </c>
+      <c r="I117">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="K117" t="s">
+        <v>4</v>
+      </c>
+      <c r="L117" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M117" t="s">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>42723</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" si="6"/>
+        <v>42724</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="5">
+        <v>-50000000</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H118" s="5">
+        <f t="shared" si="5"/>
+        <v>6195375000</v>
+      </c>
+      <c r="I118">
+        <v>123.9075</v>
+      </c>
+      <c r="K118" t="s">
+        <v>13</v>
+      </c>
+      <c r="L118" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M118" t="s">
+        <v>31</v>
+      </c>
+      <c r="N118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>42739</v>
+      </c>
+      <c r="C119" s="3">
+        <f t="shared" si="6"/>
+        <v>42740</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F119" s="5">
+        <v>-10000</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" s="5">
+        <f t="shared" si="5"/>
+        <v>7876</v>
+      </c>
+      <c r="I119">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="K119" t="s">
+        <v>27</v>
+      </c>
+      <c r="L119" s="3">
+        <v>42509</v>
+      </c>
+      <c r="M119" t="s">
+        <v>28</v>
+      </c>
+      <c r="N119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>42754</v>
+      </c>
+      <c r="C120" s="3">
+        <f t="shared" si="6"/>
+        <v>42755</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="5">
+        <v>-50000000</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H120" s="5">
+        <f t="shared" si="5"/>
+        <v>6078445000</v>
+      </c>
+      <c r="I120">
+        <v>121.5689</v>
+      </c>
+      <c r="K120" t="s">
+        <v>29</v>
+      </c>
+      <c r="L120" s="3">
+        <v>42517</v>
+      </c>
+      <c r="M120" t="s">
+        <v>30</v>
+      </c>
+      <c r="N120" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <v>42777</v>
+      </c>
+      <c r="C121" s="3">
+        <f t="shared" si="6"/>
+        <v>42778</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H121" s="5">
+        <f t="shared" si="5"/>
+        <v>-5481125000</v>
+      </c>
+      <c r="I121">
+        <v>109.6225</v>
+      </c>
+      <c r="K121" t="s">
+        <v>13</v>
+      </c>
+      <c r="L121" s="3">
+        <v>42517</v>
+      </c>
+      <c r="M121" t="s">
+        <v>31</v>
+      </c>
+      <c r="N121" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>42811</v>
+      </c>
+      <c r="C122" s="3">
+        <f t="shared" si="6"/>
+        <v>42812</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H122" s="5">
+        <f t="shared" si="5"/>
+        <v>-5466280000</v>
+      </c>
+      <c r="I122">
+        <v>109.32559999999999</v>
+      </c>
+      <c r="K122" t="s">
+        <v>13</v>
+      </c>
+      <c r="L122" s="3">
+        <v>42517</v>
+      </c>
+      <c r="M122" t="s">
+        <v>14</v>
+      </c>
+      <c r="N122" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>42844</v>
+      </c>
+      <c r="C123" s="3">
+        <f t="shared" si="6"/>
+        <v>42845</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H123" s="5">
+        <f t="shared" si="5"/>
+        <v>-1076548</v>
+      </c>
+      <c r="I123">
+        <v>107.65479999999999</v>
+      </c>
+      <c r="K123" t="s">
+        <v>7</v>
+      </c>
+      <c r="L123" s="3">
+        <v>42517</v>
+      </c>
+      <c r="M123" t="s">
+        <v>8</v>
+      </c>
+      <c r="N123" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/DataSets/TradeBlotterFX.xlsx
+++ b/DataSets/TradeBlotterFX.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/adaptableblotter-demo/DataSets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37480" windowHeight="16360"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="FXTrade" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -225,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +232,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,18 +270,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -329,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +385,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,11 +572,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -565,14 +586,14 @@
     <col min="7" max="7" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
     <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +621,7 @@
       <c r="I1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -616,7 +637,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -624,7 +645,7 @@
         <v>42332</v>
       </c>
       <c r="C2" s="3">
-        <f>SUM(B2+1)</f>
+        <f t="shared" ref="C2:C33" si="0">SUM(B2+1)</f>
         <v>42333</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -640,12 +661,15 @@
         <v>6</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H33" si="0">SUM(F2*I2*-1)</f>
+        <f t="shared" ref="H2:H33" si="1">SUM(F2*I2*-1)</f>
         <v>56520000</v>
       </c>
       <c r="I2">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J2" s="7">
+        <v>21.641100000000002</v>
+      </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
@@ -659,7 +683,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -667,7 +691,7 @@
         <v>42118</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C66" si="1">SUM(B3+1)</f>
+        <f t="shared" si="0"/>
         <v>42119</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -683,12 +707,15 @@
         <v>6</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1435200</v>
       </c>
       <c r="I3">
         <v>1.4352</v>
       </c>
+      <c r="J3" s="7">
+        <v>10.706999999999997</v>
+      </c>
       <c r="K3" t="s">
         <v>36</v>
       </c>
@@ -702,7 +729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -710,7 +737,7 @@
         <v>42515</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42516</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -726,12 +753,15 @@
         <v>6</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14352</v>
       </c>
       <c r="I4">
         <v>1.4352</v>
       </c>
+      <c r="J4" s="7">
+        <v>11.896999999999997</v>
+      </c>
       <c r="K4" t="s">
         <v>39</v>
       </c>
@@ -745,7 +775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -753,7 +783,7 @@
         <v>42358</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42359</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -769,12 +799,15 @@
         <v>55</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1239075</v>
       </c>
       <c r="I5">
         <v>123.9075</v>
       </c>
+      <c r="J5" s="7">
+        <v>10.123200000000001</v>
+      </c>
       <c r="K5" t="s">
         <v>33</v>
       </c>
@@ -788,7 +821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -796,7 +829,7 @@
         <v>42450</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42451</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -812,12 +845,15 @@
         <v>41</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39380000</v>
       </c>
       <c r="I6">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J6" s="7">
+        <v>3.5999999999999996</v>
+      </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
@@ -831,7 +867,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -839,7 +875,7 @@
         <v>42289</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42290</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -855,12 +891,15 @@
         <v>6</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-56520000</v>
       </c>
       <c r="I7">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J7" s="7">
+        <v>21.564800000000002</v>
+      </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
@@ -874,7 +913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -882,7 +921,7 @@
         <v>42157</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42158</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -898,12 +937,15 @@
         <v>6</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-717600</v>
       </c>
       <c r="I8">
         <v>1.4352</v>
       </c>
+      <c r="J8" s="7">
+        <v>-13.087</v>
+      </c>
       <c r="K8" t="s">
         <v>17</v>
       </c>
@@ -917,7 +959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -925,7 +967,7 @@
         <v>42283</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42284</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -941,12 +983,15 @@
         <v>6</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-565200</v>
       </c>
       <c r="I9">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J9" s="7">
+        <v>21.488500000000002</v>
+      </c>
       <c r="K9" t="s">
         <v>23</v>
       </c>
@@ -960,7 +1005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -968,7 +1013,7 @@
         <v>42187</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42188</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -984,12 +1029,15 @@
         <v>6</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1130400</v>
       </c>
       <c r="I10">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J10" s="7">
+        <v>21.412200000000002</v>
+      </c>
       <c r="K10" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1011,7 +1059,7 @@
         <v>42432</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42433</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1027,12 +1075,15 @@
         <v>41</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>787600</v>
       </c>
       <c r="I11">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J11" s="7">
+        <v>3.8099999999999996</v>
+      </c>
       <c r="K11" t="s">
         <v>36</v>
       </c>
@@ -1046,7 +1097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1054,7 +1105,7 @@
         <v>42479</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42480</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1070,12 +1121,15 @@
         <v>41</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7876</v>
       </c>
       <c r="I12">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J12" s="7">
+        <v>4.0199999999999996</v>
+      </c>
       <c r="K12" t="s">
         <v>27</v>
       </c>
@@ -1089,7 +1143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1097,7 +1151,7 @@
         <v>42212</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42213</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1113,12 +1167,15 @@
         <v>6</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11304</v>
       </c>
       <c r="I13">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J13" s="7">
+        <v>21.335900000000002</v>
+      </c>
       <c r="K13" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1189,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1140,7 +1197,7 @@
         <v>42239</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42240</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1156,12 +1213,15 @@
         <v>6</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-565200</v>
       </c>
       <c r="I14">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J14" s="7">
+        <v>21.259600000000002</v>
+      </c>
       <c r="K14" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1235,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1183,7 +1243,7 @@
         <v>42481</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42482</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1199,12 +1259,15 @@
         <v>41</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393800</v>
       </c>
       <c r="I15">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J15" s="7">
+        <v>4.2299999999999995</v>
+      </c>
       <c r="K15" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1226,7 +1289,7 @@
         <v>42082</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42083</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1242,12 +1305,15 @@
         <v>6</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-717600</v>
       </c>
       <c r="I16">
         <v>1.4352</v>
       </c>
+      <c r="J16" s="7">
+        <v>14.276999999999996</v>
+      </c>
       <c r="K16" t="s">
         <v>23</v>
       </c>
@@ -1261,7 +1327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1269,7 +1335,7 @@
         <v>42482</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42483</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1285,12 +1351,15 @@
         <v>41</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>787600</v>
       </c>
       <c r="I17">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J17" s="7">
+        <v>4.4399999999999995</v>
+      </c>
       <c r="K17" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1312,7 +1381,7 @@
         <v>42412</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42413</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1328,12 +1397,15 @@
         <v>55</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6195375000</v>
       </c>
       <c r="I18">
         <v>123.9075</v>
       </c>
+      <c r="J18" s="7">
+        <v>-10.575200000000001</v>
+      </c>
       <c r="K18" t="s">
         <v>13</v>
       </c>
@@ -1347,7 +1419,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1355,7 +1427,7 @@
         <v>42459</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42460</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1371,12 +1443,15 @@
         <v>41</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7876</v>
       </c>
       <c r="I19">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J19" s="7">
+        <v>4.6499999999999995</v>
+      </c>
       <c r="K19" t="s">
         <v>27</v>
       </c>
@@ -1390,7 +1465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1398,7 +1473,7 @@
         <v>42354</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42355</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1414,12 +1489,15 @@
         <v>55</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6195375000</v>
       </c>
       <c r="I20">
         <v>123.9075</v>
       </c>
+      <c r="J20" s="7">
+        <v>11.027200000000001</v>
+      </c>
       <c r="K20" t="s">
         <v>29</v>
       </c>
@@ -1433,7 +1511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1441,7 +1519,7 @@
         <v>42097</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42098</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1457,12 +1535,15 @@
         <v>55</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5481125000</v>
       </c>
       <c r="I21">
         <v>109.6225</v>
       </c>
+      <c r="J21" s="7">
+        <v>3.3431999999999999</v>
+      </c>
       <c r="K21" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1484,7 +1565,7 @@
         <v>42155</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42156</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1500,12 +1581,15 @@
         <v>55</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5481125000</v>
       </c>
       <c r="I22">
         <v>109.6225</v>
       </c>
+      <c r="J22" s="7">
+        <v>3.7951999999999999</v>
+      </c>
       <c r="K22" t="s">
         <v>13</v>
       </c>
@@ -1519,7 +1603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1527,7 +1611,7 @@
         <v>42122</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42123</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1543,12 +1627,15 @@
         <v>55</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1096225</v>
       </c>
       <c r="I23">
         <v>109.6225</v>
       </c>
+      <c r="J23" s="7">
+        <v>-4.2472000000000003</v>
+      </c>
       <c r="K23" t="s">
         <v>7</v>
       </c>
@@ -1562,7 +1649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1570,7 +1657,7 @@
         <v>42276</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42277</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1586,12 +1673,15 @@
         <v>6</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-565200</v>
       </c>
       <c r="I24">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J24" s="7">
+        <v>21.183300000000003</v>
+      </c>
       <c r="K24" t="s">
         <v>25</v>
       </c>
@@ -1605,7 +1695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1613,7 +1703,7 @@
         <v>42350</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42351</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1629,12 +1719,15 @@
         <v>55</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1239075</v>
       </c>
       <c r="I25">
         <v>123.9075</v>
       </c>
+      <c r="J25" s="7">
+        <v>11.479200000000001</v>
+      </c>
       <c r="K25" t="s">
         <v>33</v>
       </c>
@@ -1648,7 +1741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1656,7 +1749,7 @@
         <v>42487</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42488</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1672,12 +1765,15 @@
         <v>41</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7876</v>
       </c>
       <c r="I26">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J26" s="7">
+        <v>4.8599999999999994</v>
+      </c>
       <c r="K26" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1699,7 +1795,7 @@
         <v>42444</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42445</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1715,12 +1811,15 @@
         <v>41</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39380000</v>
       </c>
       <c r="I27">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J27" s="7">
+        <v>5.0699999999999994</v>
+      </c>
       <c r="K27" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1742,7 +1841,7 @@
         <v>42270</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42271</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1758,12 +1857,15 @@
         <v>6</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-56520000</v>
       </c>
       <c r="I28">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J28" s="7">
+        <v>21.107000000000003</v>
+      </c>
       <c r="K28" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1785,7 +1887,7 @@
         <v>42174</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42175</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1801,12 +1903,15 @@
         <v>6</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1130400</v>
       </c>
       <c r="I29">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J29" s="7">
+        <v>21.030700000000003</v>
+      </c>
       <c r="K29" t="s">
         <v>11</v>
       </c>
@@ -1820,7 +1925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1828,7 +1933,7 @@
         <v>42253</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42254</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1844,12 +1949,15 @@
         <v>6</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11304</v>
       </c>
       <c r="I30">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J30" s="7">
+        <v>20.954400000000003</v>
+      </c>
       <c r="K30" t="s">
         <v>27</v>
       </c>
@@ -1863,7 +1971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1871,7 +1979,7 @@
         <v>42226</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42227</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1887,12 +1995,15 @@
         <v>6</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-56520000</v>
       </c>
       <c r="I31">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J31" s="7">
+        <v>-20.8781</v>
+      </c>
       <c r="K31" t="s">
         <v>13</v>
       </c>
@@ -1906,7 +2017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1914,7 +2025,7 @@
         <v>42030</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42031</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -1930,12 +2041,15 @@
         <v>6</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14352</v>
       </c>
       <c r="I32">
         <v>1.4352</v>
       </c>
+      <c r="J32" s="7">
+        <v>15.466999999999995</v>
+      </c>
       <c r="K32" t="s">
         <v>33</v>
       </c>
@@ -1949,7 +2063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1957,7 +2071,7 @@
         <v>42443</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42444</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1973,12 +2087,15 @@
         <v>41</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7876</v>
       </c>
       <c r="I33">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J33" s="7">
+        <v>5.2799999999999994</v>
+      </c>
       <c r="K33" t="s">
         <v>27</v>
       </c>
@@ -1992,7 +2109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2000,7 +2117,7 @@
         <v>42056</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C34:C65" si="2">SUM(B34+1)</f>
         <v>42057</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2016,12 +2133,15 @@
         <v>6</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" ref="H34:H65" si="2">SUM(F34*I34*-1)</f>
+        <f t="shared" ref="H34:H65" si="3">SUM(F34*I34*-1)</f>
         <v>-71760000</v>
       </c>
       <c r="I34">
         <v>1.4352</v>
       </c>
+      <c r="J34" s="7">
+        <v>16.656999999999996</v>
+      </c>
       <c r="K34" t="s">
         <v>21</v>
       </c>
@@ -2035,7 +2155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2043,7 +2163,7 @@
         <v>42344</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42345</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -2059,12 +2179,15 @@
         <v>55</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61953750</v>
       </c>
       <c r="I35">
         <v>123.9075</v>
       </c>
+      <c r="J35" s="7">
+        <v>11.9312</v>
+      </c>
       <c r="K35" t="s">
         <v>17</v>
       </c>
@@ -2078,7 +2201,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2086,7 +2209,7 @@
         <v>42099</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42100</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -2102,12 +2225,15 @@
         <v>55</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1096225</v>
       </c>
       <c r="I36">
         <v>109.6225</v>
       </c>
+      <c r="J36" s="7">
+        <v>4.6992000000000003</v>
+      </c>
       <c r="K36" t="s">
         <v>9</v>
       </c>
@@ -2121,7 +2247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2129,7 +2255,7 @@
         <v>42314</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42315</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -2145,12 +2271,15 @@
         <v>6</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-56520000</v>
       </c>
       <c r="I37">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J37" s="7">
+        <v>20.801800000000004</v>
+      </c>
       <c r="K37" t="s">
         <v>19</v>
       </c>
@@ -2164,7 +2293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2172,7 +2301,7 @@
         <v>42357</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42358</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2188,12 +2317,15 @@
         <v>55</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6195375000</v>
       </c>
       <c r="I38">
         <v>123.9075</v>
       </c>
+      <c r="J38" s="7">
+        <v>12.3832</v>
+      </c>
       <c r="K38" t="s">
         <v>29</v>
       </c>
@@ -2207,7 +2339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2215,7 +2347,7 @@
         <v>42130</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42131</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2231,12 +2363,15 @@
         <v>55</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5481125000</v>
       </c>
       <c r="I39">
         <v>109.6225</v>
       </c>
+      <c r="J39" s="7">
+        <v>-5.1512000000000002</v>
+      </c>
       <c r="K39" t="s">
         <v>29</v>
       </c>
@@ -2250,7 +2385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2258,7 +2393,7 @@
         <v>42199</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42200</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2274,12 +2409,15 @@
         <v>6</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1130400</v>
       </c>
       <c r="I40">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J40" s="7">
+        <v>20.725500000000004</v>
+      </c>
       <c r="K40" t="s">
         <v>15</v>
       </c>
@@ -2293,7 +2431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2301,7 +2439,7 @@
         <v>42058</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42059</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -2317,12 +2455,15 @@
         <v>6</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-14352</v>
       </c>
       <c r="I41">
         <v>1.4352</v>
       </c>
+      <c r="J41" s="7">
+        <v>17.846999999999998</v>
+      </c>
       <c r="K41" t="s">
         <v>33</v>
       </c>
@@ -2336,7 +2477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2344,7 +2485,7 @@
         <v>42397</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42398</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -2360,12 +2501,15 @@
         <v>55</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6195375000</v>
       </c>
       <c r="I42">
         <v>123.9075</v>
       </c>
+      <c r="J42" s="7">
+        <v>-12.8352</v>
+      </c>
       <c r="K42" t="s">
         <v>11</v>
       </c>
@@ -2379,7 +2523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2387,7 +2531,7 @@
         <v>42375</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42376</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -2403,12 +2547,15 @@
         <v>55</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>123907500</v>
       </c>
       <c r="I43">
         <v>123.9075</v>
       </c>
+      <c r="J43" s="7">
+        <v>13.2872</v>
+      </c>
       <c r="K43" t="s">
         <v>15</v>
       </c>
@@ -2422,7 +2569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2430,7 +2577,7 @@
         <v>42085</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42086</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -2446,12 +2593,15 @@
         <v>55</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5481125000</v>
       </c>
       <c r="I44">
         <v>109.6225</v>
       </c>
+      <c r="J44" s="7">
+        <v>5.6032000000000002</v>
+      </c>
       <c r="K44" t="s">
         <v>13</v>
       </c>
@@ -2465,7 +2615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2473,7 +2623,7 @@
         <v>42321</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42322</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2489,12 +2639,15 @@
         <v>6</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-56520000</v>
       </c>
       <c r="I45">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J45" s="7">
+        <v>20.649200000000004</v>
+      </c>
       <c r="K45" t="s">
         <v>29</v>
       </c>
@@ -2508,7 +2661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2516,7 +2669,7 @@
         <v>42024</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42025</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -2532,12 +2685,15 @@
         <v>6</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1435200</v>
       </c>
       <c r="I46">
         <v>1.4352</v>
       </c>
+      <c r="J46" s="7">
+        <v>19.036999999999999</v>
+      </c>
       <c r="K46" t="s">
         <v>4</v>
       </c>
@@ -2551,7 +2707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2559,7 +2715,7 @@
         <v>42151</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42152</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -2575,12 +2731,15 @@
         <v>55</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-109622500</v>
       </c>
       <c r="I47">
         <v>109.6225</v>
       </c>
+      <c r="J47" s="7">
+        <v>6.0552000000000001</v>
+      </c>
       <c r="K47" t="s">
         <v>36</v>
       </c>
@@ -2594,7 +2753,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2602,7 +2761,7 @@
         <v>42464</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42465</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -2618,12 +2777,15 @@
         <v>41</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39380000</v>
       </c>
       <c r="I48">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J48" s="7">
+        <v>5.4899999999999993</v>
+      </c>
       <c r="K48" t="s">
         <v>29</v>
       </c>
@@ -2637,7 +2799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2645,7 +2807,7 @@
         <v>42447</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42448</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -2661,12 +2823,15 @@
         <v>41</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39380000</v>
       </c>
       <c r="I49">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J49" s="7">
+        <v>8.36</v>
+      </c>
       <c r="K49" t="s">
         <v>19</v>
       </c>
@@ -2680,7 +2845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2688,7 +2853,7 @@
         <v>42106</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42107</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -2704,12 +2869,15 @@
         <v>55</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1096225</v>
       </c>
       <c r="I50">
         <v>109.6225</v>
       </c>
+      <c r="J50" s="7">
+        <v>6.5072000000000001</v>
+      </c>
       <c r="K50" t="s">
         <v>27</v>
       </c>
@@ -2723,7 +2891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2731,7 +2899,7 @@
         <v>42124</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42125</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -2747,12 +2915,15 @@
         <v>55</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-109622500</v>
       </c>
       <c r="I51">
         <v>109.6225</v>
       </c>
+      <c r="J51" s="7">
+        <v>6.9592000000000001</v>
+      </c>
       <c r="K51" t="s">
         <v>15</v>
       </c>
@@ -2766,7 +2937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2774,7 +2945,7 @@
         <v>42394</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42395</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -2790,12 +2961,15 @@
         <v>55</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61953750</v>
       </c>
       <c r="I52">
         <v>123.9075</v>
       </c>
+      <c r="J52" s="7">
+        <v>13.7392</v>
+      </c>
       <c r="K52" t="s">
         <v>9</v>
       </c>
@@ -2809,7 +2983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2817,7 +2991,7 @@
         <v>42444</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42445</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -2833,12 +3007,15 @@
         <v>56</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12635</v>
       </c>
       <c r="I53">
         <v>1.2635000000000001</v>
       </c>
+      <c r="J53" s="7">
+        <v>4.7569999999999997</v>
+      </c>
       <c r="K53" t="s">
         <v>33</v>
       </c>
@@ -2852,7 +3029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2860,7 +3037,7 @@
         <v>42321</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42322</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -2876,12 +3053,15 @@
         <v>6</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-56520000</v>
       </c>
       <c r="I54">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J54" s="7">
+        <v>20.572900000000004</v>
+      </c>
       <c r="K54" t="s">
         <v>13</v>
       </c>
@@ -2895,7 +3075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2903,7 +3083,7 @@
         <v>42086</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42087</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -2919,12 +3099,15 @@
         <v>55</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-54811250</v>
       </c>
       <c r="I55">
         <v>109.6225</v>
       </c>
+      <c r="J55" s="7">
+        <v>7.4112</v>
+      </c>
       <c r="K55" t="s">
         <v>23</v>
       </c>
@@ -2938,7 +3121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2946,7 +3129,7 @@
         <v>42275</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42276</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -2962,12 +3145,15 @@
         <v>6</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-782000</v>
       </c>
       <c r="I56">
         <v>0.78200000000000003</v>
       </c>
+      <c r="J56" s="7">
+        <v>1.71</v>
+      </c>
       <c r="K56" t="s">
         <v>11</v>
       </c>
@@ -2981,7 +3167,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2989,7 +3175,7 @@
         <v>42211</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42212</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -3005,12 +3191,15 @@
         <v>6</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-565200</v>
       </c>
       <c r="I57">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J57" s="7">
+        <v>20.496600000000004</v>
+      </c>
       <c r="K57" t="s">
         <v>17</v>
       </c>
@@ -3024,7 +3213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3032,7 +3221,7 @@
         <v>42344</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42345</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -3048,12 +3237,15 @@
         <v>55</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>123907500</v>
       </c>
       <c r="I58">
         <v>123.9075</v>
       </c>
+      <c r="J58" s="7">
+        <v>14.1912</v>
+      </c>
       <c r="K58" t="s">
         <v>15</v>
       </c>
@@ -3067,7 +3259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3075,7 +3267,7 @@
         <v>42300</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42301</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -3091,12 +3283,15 @@
         <v>6</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7820</v>
       </c>
       <c r="I59">
         <v>0.78200000000000003</v>
       </c>
+      <c r="J59" s="7">
+        <v>1.92</v>
+      </c>
       <c r="K59" t="s">
         <v>7</v>
       </c>
@@ -3110,7 +3305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3118,7 +3313,7 @@
         <v>42371</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42372</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -3134,12 +3329,15 @@
         <v>55</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>123907500</v>
       </c>
       <c r="I60">
         <v>123.9075</v>
       </c>
+      <c r="J60" s="7">
+        <v>2.5339999999999998</v>
+      </c>
       <c r="K60" t="s">
         <v>25</v>
       </c>
@@ -3153,7 +3351,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3161,7 +3359,7 @@
         <v>42005</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42006</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -3177,12 +3375,15 @@
         <v>6</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-14352</v>
       </c>
       <c r="I61">
         <v>1.4352</v>
       </c>
+      <c r="J61" s="7">
+        <v>20.227</v>
+      </c>
       <c r="K61" t="s">
         <v>7</v>
       </c>
@@ -3196,7 +3397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3204,7 +3405,7 @@
         <v>42019</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42020</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3220,12 +3421,15 @@
         <v>6</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1435200</v>
       </c>
       <c r="I62">
         <v>1.4352</v>
       </c>
+      <c r="J62" s="7">
+        <v>-21.417000000000002</v>
+      </c>
       <c r="K62" t="s">
         <v>36</v>
       </c>
@@ -3239,7 +3443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3247,7 +3451,7 @@
         <v>42484</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42485</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -3263,12 +3467,15 @@
         <v>56</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1263500</v>
       </c>
       <c r="I63">
         <v>1.2635000000000001</v>
       </c>
+      <c r="J63" s="7">
+        <v>5.9469999999999992</v>
+      </c>
       <c r="K63" t="s">
         <v>25</v>
       </c>
@@ -3282,7 +3489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3290,7 +3497,7 @@
         <v>42030</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42031</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -3306,12 +3513,15 @@
         <v>6</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1435200</v>
       </c>
       <c r="I64">
         <v>1.4352</v>
       </c>
+      <c r="J64" s="7">
+        <v>22.607000000000003</v>
+      </c>
       <c r="K64" t="s">
         <v>11</v>
       </c>
@@ -3325,7 +3535,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3333,7 +3543,7 @@
         <v>42463</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42464</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -3349,12 +3559,15 @@
         <v>56</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>631750</v>
       </c>
       <c r="I65">
         <v>1.2635000000000001</v>
       </c>
+      <c r="J65" s="7">
+        <v>-7.1369999999999996</v>
+      </c>
       <c r="K65" t="s">
         <v>19</v>
       </c>
@@ -3368,7 +3581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3376,7 +3589,7 @@
         <v>42403</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C66:C97" si="4">SUM(B66+1)</f>
         <v>42404</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -3392,12 +3605,15 @@
         <v>55</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" ref="H66:H97" si="3">SUM(F66*I66*-1)</f>
+        <f t="shared" ref="H66:H97" si="5">SUM(F66*I66*-1)</f>
         <v>123907500</v>
       </c>
       <c r="I66">
         <v>123.9075</v>
       </c>
+      <c r="J66" s="7">
+        <v>3.7699999999999996</v>
+      </c>
       <c r="K66" t="s">
         <v>36</v>
       </c>
@@ -3411,7 +3627,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3419,7 +3635,7 @@
         <v>42037</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" ref="C67:C101" si="4">SUM(B67+1)</f>
+        <f t="shared" si="4"/>
         <v>42038</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -3435,12 +3651,15 @@
         <v>6</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-717600</v>
       </c>
       <c r="I67">
         <v>1.4352</v>
       </c>
+      <c r="J67" s="7">
+        <v>23.797000000000004</v>
+      </c>
       <c r="K67" t="s">
         <v>9</v>
       </c>
@@ -3454,7 +3673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3478,12 +3697,15 @@
         <v>55</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-109622500</v>
       </c>
       <c r="I68">
         <v>109.6225</v>
       </c>
+      <c r="J68" s="7">
+        <v>7.8632</v>
+      </c>
       <c r="K68" t="s">
         <v>4</v>
       </c>
@@ -3497,7 +3719,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3521,12 +3743,15 @@
         <v>41</v>
       </c>
       <c r="H69" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>393800</v>
       </c>
       <c r="I69">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J69" s="7">
+        <v>8.2729999999999997</v>
+      </c>
       <c r="K69" t="s">
         <v>19</v>
       </c>
@@ -3540,7 +3765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3564,12 +3789,15 @@
         <v>41</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>787600</v>
       </c>
       <c r="I70">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J70" s="7">
+        <v>8.1859999999999999</v>
+      </c>
       <c r="K70" t="s">
         <v>15</v>
       </c>
@@ -3583,7 +3811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3607,12 +3835,15 @@
         <v>6</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-391000</v>
       </c>
       <c r="I71">
         <v>0.78200000000000003</v>
       </c>
+      <c r="J71" s="7">
+        <v>-2.13</v>
+      </c>
       <c r="K71" t="s">
         <v>17</v>
       </c>
@@ -3626,7 +3857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3650,12 +3881,15 @@
         <v>55</v>
       </c>
       <c r="H72" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-109622500</v>
       </c>
       <c r="I72">
         <v>109.6225</v>
       </c>
+      <c r="J72" s="7">
+        <v>8.3152000000000008</v>
+      </c>
       <c r="K72" t="s">
         <v>36</v>
       </c>
@@ -3669,7 +3903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3693,12 +3927,15 @@
         <v>6</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7820</v>
       </c>
       <c r="I73">
         <v>0.78200000000000003</v>
       </c>
+      <c r="J73" s="7">
+        <v>2.34</v>
+      </c>
       <c r="K73" t="s">
         <v>9</v>
       </c>
@@ -3712,7 +3949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3736,12 +3973,15 @@
         <v>6</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-782000</v>
       </c>
       <c r="I74">
         <v>0.78200000000000003</v>
       </c>
+      <c r="J74" s="7">
+        <v>2.5499999999999998</v>
+      </c>
       <c r="K74" t="s">
         <v>15</v>
       </c>
@@ -3755,7 +3995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3779,12 +4019,15 @@
         <v>6</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-782000</v>
       </c>
       <c r="I75">
         <v>0.78200000000000003</v>
       </c>
+      <c r="J75" s="7">
+        <v>2.76</v>
+      </c>
       <c r="K75" t="s">
         <v>4</v>
       </c>
@@ -3798,7 +4041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3822,12 +4065,15 @@
         <v>6</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1130400</v>
       </c>
       <c r="I76">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J76" s="7">
+        <v>20.420300000000005</v>
+      </c>
       <c r="K76" t="s">
         <v>15</v>
       </c>
@@ -3841,7 +4087,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3865,12 +4111,15 @@
         <v>6</v>
       </c>
       <c r="H77" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-39100000</v>
       </c>
       <c r="I77">
         <v>0.78200000000000003</v>
       </c>
+      <c r="J77" s="7">
+        <v>2.9699999999999998</v>
+      </c>
       <c r="K77" t="s">
         <v>19</v>
       </c>
@@ -3884,7 +4133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3908,12 +4157,15 @@
         <v>6</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-717600</v>
       </c>
       <c r="I78">
         <v>1.4352</v>
       </c>
+      <c r="J78" s="7">
+        <v>24.987000000000005</v>
+      </c>
       <c r="K78" t="s">
         <v>19</v>
       </c>
@@ -3927,7 +4179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3951,12 +4203,15 @@
         <v>56</v>
       </c>
       <c r="H79" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12635</v>
       </c>
       <c r="I79">
         <v>1.2635000000000001</v>
       </c>
+      <c r="J79" s="7">
+        <v>8.3269999999999982</v>
+      </c>
       <c r="K79" t="s">
         <v>33</v>
       </c>
@@ -3970,7 +4225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3994,12 +4249,15 @@
         <v>6</v>
       </c>
       <c r="H80" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39100000</v>
       </c>
       <c r="I80">
         <v>0.78200000000000003</v>
       </c>
+      <c r="J80" s="7">
+        <v>3.1799999999999997</v>
+      </c>
       <c r="K80" t="s">
         <v>13</v>
       </c>
@@ -4013,7 +4271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4037,12 +4295,15 @@
         <v>41</v>
       </c>
       <c r="H81" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7876</v>
       </c>
       <c r="I81">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J81" s="7">
+        <v>8.0990000000000002</v>
+      </c>
       <c r="K81" t="s">
         <v>33</v>
       </c>
@@ -4056,7 +4317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4080,12 +4341,15 @@
         <v>56</v>
       </c>
       <c r="H82" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75000000</v>
       </c>
       <c r="I82">
         <v>1.5</v>
       </c>
+      <c r="J82" s="7">
+        <v>1.9871999999999999</v>
+      </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
@@ -4099,7 +4363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4123,12 +4387,15 @@
         <v>6</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-782000</v>
       </c>
       <c r="I83">
         <v>0.78200000000000003</v>
       </c>
+      <c r="J83" s="7">
+        <v>3.3899999999999997</v>
+      </c>
       <c r="K83" t="s">
         <v>15</v>
       </c>
@@ -4142,7 +4409,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4166,12 +4433,15 @@
         <v>6</v>
       </c>
       <c r="H84" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-14352</v>
       </c>
       <c r="I84">
         <v>1.4352</v>
       </c>
+      <c r="J84" s="7">
+        <v>26.177000000000007</v>
+      </c>
       <c r="K84" t="s">
         <v>33</v>
       </c>
@@ -4185,7 +4455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4209,12 +4479,15 @@
         <v>55</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-109622500</v>
       </c>
       <c r="I85">
         <v>109.6225</v>
       </c>
+      <c r="J85" s="7">
+        <v>8.7672000000000008</v>
+      </c>
       <c r="K85" t="s">
         <v>11</v>
       </c>
@@ -4228,7 +4501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4252,12 +4525,15 @@
         <v>6</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>717600</v>
       </c>
       <c r="I86">
         <v>1.4352</v>
       </c>
+      <c r="J86" s="7">
+        <v>27.367000000000008</v>
+      </c>
       <c r="K86" t="s">
         <v>17</v>
       </c>
@@ -4271,7 +4547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4295,12 +4571,15 @@
         <v>55</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1239075</v>
       </c>
       <c r="I87">
         <v>123.9075</v>
       </c>
+      <c r="J87" s="7">
+        <v>5.0059999999999993</v>
+      </c>
       <c r="K87" t="s">
         <v>39</v>
       </c>
@@ -4314,7 +4593,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4338,12 +4617,15 @@
         <v>55</v>
       </c>
       <c r="H88" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1239075</v>
       </c>
       <c r="I88">
         <v>123.9075</v>
       </c>
+      <c r="J88" s="7">
+        <v>6.2419999999999991</v>
+      </c>
       <c r="K88" t="s">
         <v>39</v>
       </c>
@@ -4357,7 +4639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4381,12 +4663,15 @@
         <v>43</v>
       </c>
       <c r="H89" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>970300</v>
       </c>
       <c r="I89">
         <v>0.97030000000000005</v>
       </c>
+      <c r="J89" s="7">
+        <v>7.3160000000000025</v>
+      </c>
       <c r="K89" t="s">
         <v>4</v>
       </c>
@@ -4400,7 +4685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4424,12 +4709,15 @@
         <v>6</v>
       </c>
       <c r="H90" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-71760000</v>
       </c>
       <c r="I90">
         <v>1.4352</v>
       </c>
+      <c r="J90" s="7">
+        <v>28.557000000000009</v>
+      </c>
       <c r="K90" t="s">
         <v>29</v>
       </c>
@@ -4443,7 +4731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4467,12 +4755,15 @@
         <v>41</v>
       </c>
       <c r="H91" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39380000</v>
       </c>
       <c r="I91">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J91" s="7">
+        <v>8.0120000000000005</v>
+      </c>
       <c r="K91" t="s">
         <v>13</v>
       </c>
@@ -4486,7 +4777,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4510,12 +4801,15 @@
         <v>43</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9703</v>
       </c>
       <c r="I92">
         <v>0.97030000000000005</v>
       </c>
+      <c r="J92" s="7">
+        <v>-7.2290000000000001</v>
+      </c>
       <c r="K92" t="s">
         <v>9</v>
       </c>
@@ -4529,7 +4823,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4553,12 +4847,15 @@
         <v>6</v>
       </c>
       <c r="H93" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1435200</v>
       </c>
       <c r="I93">
         <v>1.4352</v>
       </c>
+      <c r="J93" s="7">
+        <v>29.747000000000011</v>
+      </c>
       <c r="K93" t="s">
         <v>11</v>
       </c>
@@ -4572,7 +4869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4596,12 +4893,15 @@
         <v>6</v>
       </c>
       <c r="H94" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1435200</v>
       </c>
       <c r="I94">
         <v>1.4352</v>
       </c>
+      <c r="J94" s="7">
+        <v>30.937000000000012</v>
+      </c>
       <c r="K94" t="s">
         <v>25</v>
       </c>
@@ -4615,7 +4915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4639,12 +4939,15 @@
         <v>6</v>
       </c>
       <c r="H95" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-565200</v>
       </c>
       <c r="I95">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J95" s="7">
+        <v>-20.344000000000001</v>
+      </c>
       <c r="K95" t="s">
         <v>19</v>
       </c>
@@ -4658,7 +4961,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4682,12 +4985,15 @@
         <v>6</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-14352</v>
       </c>
       <c r="I96">
         <v>1.4352</v>
       </c>
+      <c r="J96" s="7">
+        <v>32.12700000000001</v>
+      </c>
       <c r="K96" t="s">
         <v>27</v>
       </c>
@@ -4701,7 +5007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4725,12 +5031,15 @@
         <v>41</v>
       </c>
       <c r="H97" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>787600</v>
       </c>
       <c r="I97">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J97" s="7">
+        <v>7.9250000000000007</v>
+      </c>
       <c r="K97" t="s">
         <v>4</v>
       </c>
@@ -4744,7 +5053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4752,7 +5061,7 @@
         <v>42345</v>
       </c>
       <c r="C98" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C98:C129" si="6">SUM(B98+1)</f>
         <v>42346</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -4768,12 +5077,15 @@
         <v>41</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" ref="H98:H123" si="5">SUM(F98*I98*-1)</f>
+        <f t="shared" ref="H98:H129" si="7">SUM(F98*I98*-1)</f>
         <v>787600</v>
       </c>
       <c r="I98">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J98" s="7">
+        <v>7.838000000000001</v>
+      </c>
       <c r="K98" t="s">
         <v>4</v>
       </c>
@@ -4787,7 +5099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4795,7 +5107,7 @@
         <v>42124</v>
       </c>
       <c r="C99" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>42125</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -4811,12 +5123,15 @@
         <v>55</v>
       </c>
       <c r="H99" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6195375000</v>
       </c>
       <c r="I99">
         <v>123.9075</v>
       </c>
+      <c r="J99" s="7">
+        <v>7.4779999999999989</v>
+      </c>
       <c r="K99" t="s">
         <v>19</v>
       </c>
@@ -4830,7 +5145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4838,7 +5153,7 @@
         <v>42420</v>
       </c>
       <c r="C100" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>42421</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -4854,12 +5169,15 @@
         <v>43</v>
       </c>
       <c r="H100" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48515000</v>
       </c>
       <c r="I100">
         <v>0.97030000000000005</v>
       </c>
+      <c r="J100" s="7">
+        <v>21.87</v>
+      </c>
       <c r="K100" t="s">
         <v>21</v>
       </c>
@@ -4873,7 +5191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4881,7 +5199,7 @@
         <v>42489</v>
       </c>
       <c r="C101" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>42490</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -4897,12 +5215,15 @@
         <v>43</v>
       </c>
       <c r="H101" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48515000</v>
       </c>
       <c r="I101">
         <v>0.97030000000000005</v>
       </c>
+      <c r="J101" s="7">
+        <v>21.793700000000001</v>
+      </c>
       <c r="K101" t="s">
         <v>19</v>
       </c>
@@ -4916,7 +5237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4924,7 +5245,7 @@
         <v>42504</v>
       </c>
       <c r="C102" s="3">
-        <f>SUM(B102+1)</f>
+        <f t="shared" si="6"/>
         <v>42505</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -4940,12 +5261,15 @@
         <v>6</v>
       </c>
       <c r="H102" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>56520000</v>
       </c>
       <c r="I102">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J102" s="7">
+        <v>20.267700000000005</v>
+      </c>
       <c r="K102" t="s">
         <v>21</v>
       </c>
@@ -4959,7 +5283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4967,7 +5291,7 @@
         <v>42513</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" ref="C103:C123" si="6">SUM(B103+1)</f>
+        <f t="shared" si="6"/>
         <v>42514</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -4983,12 +5307,15 @@
         <v>6</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1435200</v>
       </c>
       <c r="I103">
         <v>1.4352</v>
       </c>
+      <c r="J103" s="7">
+        <v>33.317000000000007</v>
+      </c>
       <c r="K103" t="s">
         <v>36</v>
       </c>
@@ -5002,7 +5329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5026,12 +5353,15 @@
         <v>6</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-14352</v>
       </c>
       <c r="I104">
         <v>1.4352</v>
       </c>
+      <c r="J104" s="7">
+        <v>34.507000000000005</v>
+      </c>
       <c r="K104" t="s">
         <v>39</v>
       </c>
@@ -5045,7 +5375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5069,12 +5399,15 @@
         <v>55</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1239075</v>
       </c>
       <c r="I105">
         <v>123.9075</v>
       </c>
+      <c r="J105" s="7">
+        <v>8.7139999999999986</v>
+      </c>
       <c r="K105" t="s">
         <v>33</v>
       </c>
@@ -5088,7 +5421,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5112,12 +5445,15 @@
         <v>41</v>
       </c>
       <c r="H106" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39380000</v>
       </c>
       <c r="I106">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J106" s="7">
+        <v>7.7510000000000012</v>
+      </c>
       <c r="K106" t="s">
         <v>19</v>
       </c>
@@ -5131,7 +5467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5155,12 +5491,15 @@
         <v>6</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-56520000</v>
       </c>
       <c r="I107">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J107" s="7">
+        <v>20.191400000000005</v>
+      </c>
       <c r="K107" t="s">
         <v>19</v>
       </c>
@@ -5174,7 +5513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5198,12 +5537,15 @@
         <v>6</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-717600</v>
       </c>
       <c r="I108">
         <v>1.4352</v>
       </c>
+      <c r="J108" s="7">
+        <v>-1.0831999999999999</v>
+      </c>
       <c r="K108" t="s">
         <v>17</v>
       </c>
@@ -5217,7 +5559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5241,12 +5583,15 @@
         <v>6</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-565200</v>
       </c>
       <c r="I109">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J109" s="7">
+        <v>1.1870000000000001</v>
+      </c>
       <c r="K109" t="s">
         <v>23</v>
       </c>
@@ -5260,7 +5605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5284,12 +5629,15 @@
         <v>6</v>
       </c>
       <c r="H110" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1130400</v>
       </c>
       <c r="I110">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J110" s="7">
+        <v>2.3769999999999998</v>
+      </c>
       <c r="K110" t="s">
         <v>4</v>
       </c>
@@ -5303,7 +5651,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5327,12 +5675,15 @@
         <v>41</v>
       </c>
       <c r="H111" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>787600</v>
       </c>
       <c r="I111">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J111" s="7">
+        <v>-7.6639999999999997</v>
+      </c>
       <c r="K111" t="s">
         <v>36</v>
       </c>
@@ -5346,7 +5697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5370,12 +5721,15 @@
         <v>41</v>
       </c>
       <c r="H112" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7876</v>
       </c>
       <c r="I112">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J112" s="7">
+        <v>-7.577</v>
+      </c>
       <c r="K112" t="s">
         <v>27</v>
       </c>
@@ -5389,7 +5743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5413,12 +5767,15 @@
         <v>6</v>
       </c>
       <c r="H113" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-11304</v>
       </c>
       <c r="I113">
         <v>1.1304000000000001</v>
       </c>
+      <c r="J113" s="7">
+        <v>3.5669999999999997</v>
+      </c>
       <c r="K113" t="s">
         <v>7</v>
       </c>
@@ -5432,7 +5789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5456,12 +5813,15 @@
         <v>6</v>
       </c>
       <c r="H114" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-648100</v>
       </c>
       <c r="I114">
         <v>1.2962</v>
       </c>
+      <c r="J114" s="7">
+        <v>9.5169999999999977</v>
+      </c>
       <c r="K114" t="s">
         <v>9</v>
       </c>
@@ -5475,7 +5835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5499,12 +5859,15 @@
         <v>41</v>
       </c>
       <c r="H115" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>393800</v>
       </c>
       <c r="I115">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J115" s="7">
+        <v>7.490000000000002</v>
+      </c>
       <c r="K115" t="s">
         <v>9</v>
       </c>
@@ -5518,7 +5881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5542,12 +5905,15 @@
         <v>6</v>
       </c>
       <c r="H116" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-717600</v>
       </c>
       <c r="I116">
         <v>1.4352</v>
       </c>
+      <c r="J116" s="7">
+        <v>1.5351999999999999</v>
+      </c>
       <c r="K116" t="s">
         <v>23</v>
       </c>
@@ -5561,7 +5927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5585,12 +5951,15 @@
         <v>41</v>
       </c>
       <c r="H117" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>986500</v>
       </c>
       <c r="I117">
         <v>0.98650000000000004</v>
       </c>
+      <c r="J117" s="7">
+        <v>21.717400000000001</v>
+      </c>
       <c r="K117" t="s">
         <v>4</v>
       </c>
@@ -5604,7 +5973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5628,12 +5997,15 @@
         <v>55</v>
       </c>
       <c r="H118" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6195375000</v>
       </c>
       <c r="I118">
         <v>123.9075</v>
       </c>
+      <c r="J118" s="7">
+        <v>9.9499999999999993</v>
+      </c>
       <c r="K118" t="s">
         <v>13</v>
       </c>
@@ -5647,7 +6019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5671,12 +6043,15 @@
         <v>41</v>
       </c>
       <c r="H119" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7876</v>
       </c>
       <c r="I119">
         <v>0.78759999999999997</v>
       </c>
+      <c r="J119" s="7">
+        <v>7.4030000000000022</v>
+      </c>
       <c r="K119" t="s">
         <v>27</v>
       </c>
@@ -5690,7 +6065,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5714,12 +6089,15 @@
         <v>55</v>
       </c>
       <c r="H120" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6078445000</v>
       </c>
       <c r="I120">
         <v>121.5689</v>
       </c>
+      <c r="J120" s="7">
+        <v>-9.6712000000000007</v>
+      </c>
       <c r="K120" t="s">
         <v>29</v>
       </c>
@@ -5733,7 +6111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5757,12 +6135,15 @@
         <v>55</v>
       </c>
       <c r="H121" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5481125000</v>
       </c>
       <c r="I121">
         <v>109.6225</v>
       </c>
+      <c r="J121" s="7">
+        <v>9.2192000000000007</v>
+      </c>
       <c r="K121" t="s">
         <v>13</v>
       </c>
@@ -5776,7 +6157,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5800,12 +6181,15 @@
         <v>55</v>
       </c>
       <c r="H122" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5466280000</v>
       </c>
       <c r="I122">
         <v>109.32559999999999</v>
       </c>
+      <c r="J122" s="7">
+        <v>2.8912</v>
+      </c>
       <c r="K122" t="s">
         <v>13</v>
       </c>
@@ -5819,7 +6203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5843,12 +6227,15 @@
         <v>55</v>
       </c>
       <c r="H123" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1076548</v>
       </c>
       <c r="I123">
         <v>107.65479999999999</v>
       </c>
+      <c r="J123" s="7">
+        <v>-2.4392</v>
+      </c>
       <c r="K123" t="s">
         <v>7</v>
       </c>
@@ -5863,10 +6250,15 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M101">
-    <sortCondition ref="A2:A101"/>
+  <sortState ref="A2:O123">
+    <sortCondition ref="A2:A123"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/DataSets/TradeBlotterFX.xlsx
+++ b/DataSets/TradeBlotterFX.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/Code/adaptableblotter-demo/DataSets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="FXTrade" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -562,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,11 +577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -593,7 +598,7 @@
     <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +642,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -645,7 +650,7 @@
         <v>42332</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C33" si="0">SUM(B2+1)</f>
+        <f>SUM(B2+1)</f>
         <v>42333</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -661,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H33" si="1">SUM(F2*I2*-1)</f>
+        <f>SUM(F2*I2*-1)</f>
         <v>56520000</v>
       </c>
       <c r="I2">
@@ -683,7 +688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -691,7 +696,7 @@
         <v>42118</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B3+1)</f>
         <v>42119</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -707,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F3*I3*-1)</f>
         <v>-1435200</v>
       </c>
       <c r="I3">
@@ -729,7 +734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -737,7 +742,7 @@
         <v>42515</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B4+1)</f>
         <v>42516</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -753,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F4*I4*-1)</f>
         <v>-14352</v>
       </c>
       <c r="I4">
@@ -775,7 +780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -783,7 +788,7 @@
         <v>42358</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B5+1)</f>
         <v>42359</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -799,7 +804,7 @@
         <v>55</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F5*I5*-1)</f>
         <v>1239075</v>
       </c>
       <c r="I5">
@@ -821,7 +826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -829,7 +834,7 @@
         <v>42450</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B6+1)</f>
         <v>42451</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -845,7 +850,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F6*I6*-1)</f>
         <v>39380000</v>
       </c>
       <c r="I6">
@@ -867,7 +872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -875,7 +880,7 @@
         <v>42289</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B7+1)</f>
         <v>42290</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -891,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F7*I7*-1)</f>
         <v>-56520000</v>
       </c>
       <c r="I7">
@@ -913,7 +918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -921,7 +926,7 @@
         <v>42157</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B8+1)</f>
         <v>42158</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -937,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F8*I8*-1)</f>
         <v>-717600</v>
       </c>
       <c r="I8">
@@ -959,7 +964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -967,7 +972,7 @@
         <v>42283</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B9+1)</f>
         <v>42284</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -983,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F9*I9*-1)</f>
         <v>-565200</v>
       </c>
       <c r="I9">
@@ -1005,7 +1010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>42187</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B10+1)</f>
         <v>42188</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1029,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F10*I10*-1)</f>
         <v>-1130400</v>
       </c>
       <c r="I10">
@@ -1051,7 +1056,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1059,7 +1064,7 @@
         <v>42432</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B11+1)</f>
         <v>42433</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1075,7 +1080,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F11*I11*-1)</f>
         <v>787600</v>
       </c>
       <c r="I11">
@@ -1097,7 +1102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>42479</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B12+1)</f>
         <v>42480</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1121,7 +1126,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F12*I12*-1)</f>
         <v>7876</v>
       </c>
       <c r="I12">
@@ -1143,7 +1148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>42212</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B13+1)</f>
         <v>42213</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1167,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F13*I13*-1)</f>
         <v>-11304</v>
       </c>
       <c r="I13">
@@ -1189,7 +1194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>42239</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B14+1)</f>
         <v>42240</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1213,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F14*I14*-1)</f>
         <v>-565200</v>
       </c>
       <c r="I14">
@@ -1235,7 +1240,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1243,7 +1248,7 @@
         <v>42481</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B15+1)</f>
         <v>42482</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1259,7 +1264,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F15*I15*-1)</f>
         <v>393800</v>
       </c>
       <c r="I15">
@@ -1281,7 +1286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>42082</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B16+1)</f>
         <v>42083</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1305,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F16*I16*-1)</f>
         <v>-717600</v>
       </c>
       <c r="I16">
@@ -1327,7 +1332,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1335,7 +1340,7 @@
         <v>42482</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B17+1)</f>
         <v>42483</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1351,7 +1356,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F17*I17*-1)</f>
         <v>787600</v>
       </c>
       <c r="I17">
@@ -1373,7 +1378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1381,7 +1386,7 @@
         <v>42412</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B18+1)</f>
         <v>42413</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1397,7 +1402,7 @@
         <v>55</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F18*I18*-1)</f>
         <v>6195375000</v>
       </c>
       <c r="I18">
@@ -1419,7 +1424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1427,7 +1432,7 @@
         <v>42459</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B19+1)</f>
         <v>42460</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1443,7 +1448,7 @@
         <v>41</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F19*I19*-1)</f>
         <v>7876</v>
       </c>
       <c r="I19">
@@ -1465,7 +1470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1473,7 +1478,7 @@
         <v>42354</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B20+1)</f>
         <v>42355</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1489,7 +1494,7 @@
         <v>55</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F20*I20*-1)</f>
         <v>6195375000</v>
       </c>
       <c r="I20">
@@ -1511,7 +1516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>42097</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B21+1)</f>
         <v>42098</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1535,7 +1540,7 @@
         <v>55</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F21*I21*-1)</f>
         <v>-5481125000</v>
       </c>
       <c r="I21">
@@ -1557,7 +1562,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1565,7 +1570,7 @@
         <v>42155</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B22+1)</f>
         <v>42156</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1581,7 +1586,7 @@
         <v>55</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F22*I22*-1)</f>
         <v>-5481125000</v>
       </c>
       <c r="I22">
@@ -1603,7 +1608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>42122</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B23+1)</f>
         <v>42123</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1627,7 +1632,7 @@
         <v>55</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F23*I23*-1)</f>
         <v>-1096225</v>
       </c>
       <c r="I23">
@@ -1649,7 +1654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1657,7 +1662,7 @@
         <v>42276</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B24+1)</f>
         <v>42277</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1673,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F24*I24*-1)</f>
         <v>-565200</v>
       </c>
       <c r="I24">
@@ -1695,7 +1700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1703,7 +1708,7 @@
         <v>42350</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B25+1)</f>
         <v>42351</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1719,7 +1724,7 @@
         <v>55</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F25*I25*-1)</f>
         <v>1239075</v>
       </c>
       <c r="I25">
@@ -1741,7 +1746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1749,7 +1754,7 @@
         <v>42487</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B26+1)</f>
         <v>42488</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1765,7 +1770,7 @@
         <v>41</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F26*I26*-1)</f>
         <v>7876</v>
       </c>
       <c r="I26">
@@ -1787,7 +1792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1795,7 +1800,7 @@
         <v>42444</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B27+1)</f>
         <v>42445</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1811,7 +1816,7 @@
         <v>41</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F27*I27*-1)</f>
         <v>39380000</v>
       </c>
       <c r="I27">
@@ -1833,7 +1838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1841,7 +1846,7 @@
         <v>42270</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B28+1)</f>
         <v>42271</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1857,7 +1862,7 @@
         <v>6</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F28*I28*-1)</f>
         <v>-56520000</v>
       </c>
       <c r="I28">
@@ -1879,7 +1884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1887,7 +1892,7 @@
         <v>42174</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B29+1)</f>
         <v>42175</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1903,7 +1908,7 @@
         <v>6</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F29*I29*-1)</f>
         <v>-1130400</v>
       </c>
       <c r="I29">
@@ -1925,7 +1930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>42253</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B30+1)</f>
         <v>42254</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1949,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F30*I30*-1)</f>
         <v>-11304</v>
       </c>
       <c r="I30">
@@ -1971,7 +1976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1979,7 +1984,7 @@
         <v>42226</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B31+1)</f>
         <v>42227</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1995,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F31*I31*-1)</f>
         <v>-56520000</v>
       </c>
       <c r="I31">
@@ -2017,7 +2022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2025,7 +2030,7 @@
         <v>42030</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B32+1)</f>
         <v>42031</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2041,7 +2046,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F32*I32*-1)</f>
         <v>-14352</v>
       </c>
       <c r="I32">
@@ -2063,7 +2068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>42443</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(B33+1)</f>
         <v>42444</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2087,7 +2092,7 @@
         <v>41</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(F33*I33*-1)</f>
         <v>7876</v>
       </c>
       <c r="I33">
@@ -2109,7 +2114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2117,7 +2122,7 @@
         <v>42056</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:C65" si="2">SUM(B34+1)</f>
+        <f>SUM(B34+1)</f>
         <v>42057</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2133,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" ref="H34:H65" si="3">SUM(F34*I34*-1)</f>
+        <f>SUM(F34*I34*-1)</f>
         <v>-71760000</v>
       </c>
       <c r="I34">
@@ -2155,7 +2160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2163,7 +2168,7 @@
         <v>42344</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B35+1)</f>
         <v>42345</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -2179,7 +2184,7 @@
         <v>55</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F35*I35*-1)</f>
         <v>61953750</v>
       </c>
       <c r="I35">
@@ -2201,7 +2206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2209,7 +2214,7 @@
         <v>42099</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B36+1)</f>
         <v>42100</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -2225,7 +2230,7 @@
         <v>55</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F36*I36*-1)</f>
         <v>-1096225</v>
       </c>
       <c r="I36">
@@ -2247,7 +2252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2255,7 +2260,7 @@
         <v>42314</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B37+1)</f>
         <v>42315</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -2271,7 +2276,7 @@
         <v>6</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F37*I37*-1)</f>
         <v>-56520000</v>
       </c>
       <c r="I37">
@@ -2293,7 +2298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2301,7 +2306,7 @@
         <v>42357</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B38+1)</f>
         <v>42358</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2317,7 +2322,7 @@
         <v>55</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F38*I38*-1)</f>
         <v>6195375000</v>
       </c>
       <c r="I38">
@@ -2339,7 +2344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2347,7 +2352,7 @@
         <v>42130</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B39+1)</f>
         <v>42131</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2363,7 +2368,7 @@
         <v>55</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F39*I39*-1)</f>
         <v>-5481125000</v>
       </c>
       <c r="I39">
@@ -2385,7 +2390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2393,7 +2398,7 @@
         <v>42199</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B40+1)</f>
         <v>42200</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2409,7 +2414,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F40*I40*-1)</f>
         <v>-1130400</v>
       </c>
       <c r="I40">
@@ -2431,7 +2436,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>42058</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B41+1)</f>
         <v>42059</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -2455,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F41*I41*-1)</f>
         <v>-14352</v>
       </c>
       <c r="I41">
@@ -2477,7 +2482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2485,7 +2490,7 @@
         <v>42397</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B42+1)</f>
         <v>42398</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -2501,7 +2506,7 @@
         <v>55</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F42*I42*-1)</f>
         <v>6195375000</v>
       </c>
       <c r="I42">
@@ -2523,7 +2528,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2531,7 +2536,7 @@
         <v>42375</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B43+1)</f>
         <v>42376</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -2547,7 +2552,7 @@
         <v>55</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F43*I43*-1)</f>
         <v>123907500</v>
       </c>
       <c r="I43">
@@ -2569,7 +2574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>42085</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B44+1)</f>
         <v>42086</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -2593,7 +2598,7 @@
         <v>55</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F44*I44*-1)</f>
         <v>-5481125000</v>
       </c>
       <c r="I44">
@@ -2615,7 +2620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2623,7 +2628,7 @@
         <v>42321</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B45+1)</f>
         <v>42322</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2639,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F45*I45*-1)</f>
         <v>-56520000</v>
       </c>
       <c r="I45">
@@ -2661,7 +2666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2669,7 +2674,7 @@
         <v>42024</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B46+1)</f>
         <v>42025</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -2685,7 +2690,7 @@
         <v>6</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F46*I46*-1)</f>
         <v>-1435200</v>
       </c>
       <c r="I46">
@@ -2707,7 +2712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2715,7 +2720,7 @@
         <v>42151</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B47+1)</f>
         <v>42152</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -2731,7 +2736,7 @@
         <v>55</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F47*I47*-1)</f>
         <v>-109622500</v>
       </c>
       <c r="I47">
@@ -2753,7 +2758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2761,7 +2766,7 @@
         <v>42464</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B48+1)</f>
         <v>42465</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -2777,7 +2782,7 @@
         <v>41</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F48*I48*-1)</f>
         <v>39380000</v>
       </c>
       <c r="I48">
@@ -2799,7 +2804,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2807,7 +2812,7 @@
         <v>42447</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B49+1)</f>
         <v>42448</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -2823,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F49*I49*-1)</f>
         <v>39380000</v>
       </c>
       <c r="I49">
@@ -2845,7 +2850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2853,7 +2858,7 @@
         <v>42106</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B50+1)</f>
         <v>42107</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -2869,7 +2874,7 @@
         <v>55</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F50*I50*-1)</f>
         <v>-1096225</v>
       </c>
       <c r="I50">
@@ -2891,7 +2896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>42124</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B51+1)</f>
         <v>42125</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -2915,7 +2920,7 @@
         <v>55</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F51*I51*-1)</f>
         <v>-109622500</v>
       </c>
       <c r="I51">
@@ -2937,7 +2942,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2945,7 +2950,7 @@
         <v>42394</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B52+1)</f>
         <v>42395</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -2961,7 +2966,7 @@
         <v>55</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F52*I52*-1)</f>
         <v>61953750</v>
       </c>
       <c r="I52">
@@ -2983,7 +2988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2991,7 +2996,7 @@
         <v>42444</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B53+1)</f>
         <v>42445</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -3007,7 +3012,7 @@
         <v>56</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F53*I53*-1)</f>
         <v>12635</v>
       </c>
       <c r="I53">
@@ -3029,7 +3034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3037,7 +3042,7 @@
         <v>42321</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B54+1)</f>
         <v>42322</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -3053,7 +3058,7 @@
         <v>6</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F54*I54*-1)</f>
         <v>-56520000</v>
       </c>
       <c r="I54">
@@ -3075,7 +3080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3083,7 +3088,7 @@
         <v>42086</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B55+1)</f>
         <v>42087</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -3099,7 +3104,7 @@
         <v>55</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F55*I55*-1)</f>
         <v>-54811250</v>
       </c>
       <c r="I55">
@@ -3121,7 +3126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3129,7 +3134,7 @@
         <v>42275</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B56+1)</f>
         <v>42276</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -3145,7 +3150,7 @@
         <v>6</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F56*I56*-1)</f>
         <v>-782000</v>
       </c>
       <c r="I56">
@@ -3167,7 +3172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3175,7 +3180,7 @@
         <v>42211</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B57+1)</f>
         <v>42212</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -3191,7 +3196,7 @@
         <v>6</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F57*I57*-1)</f>
         <v>-565200</v>
       </c>
       <c r="I57">
@@ -3213,7 +3218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3221,7 +3226,7 @@
         <v>42344</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B58+1)</f>
         <v>42345</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -3237,7 +3242,7 @@
         <v>55</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F58*I58*-1)</f>
         <v>123907500</v>
       </c>
       <c r="I58">
@@ -3259,7 +3264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3267,7 +3272,7 @@
         <v>42300</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B59+1)</f>
         <v>42301</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -3283,7 +3288,7 @@
         <v>6</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F59*I59*-1)</f>
         <v>-7820</v>
       </c>
       <c r="I59">
@@ -3305,7 +3310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3313,7 +3318,7 @@
         <v>42371</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B60+1)</f>
         <v>42372</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -3329,7 +3334,7 @@
         <v>55</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F60*I60*-1)</f>
         <v>123907500</v>
       </c>
       <c r="I60">
@@ -3351,7 +3356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3359,7 +3364,7 @@
         <v>42005</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B61+1)</f>
         <v>42006</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -3375,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F61*I61*-1)</f>
         <v>-14352</v>
       </c>
       <c r="I61">
@@ -3397,7 +3402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3405,7 +3410,7 @@
         <v>42019</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B62+1)</f>
         <v>42020</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3421,7 +3426,7 @@
         <v>6</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F62*I62*-1)</f>
         <v>-1435200</v>
       </c>
       <c r="I62">
@@ -3443,7 +3448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3451,7 +3456,7 @@
         <v>42484</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B63+1)</f>
         <v>42485</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -3467,7 +3472,7 @@
         <v>56</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F63*I63*-1)</f>
         <v>1263500</v>
       </c>
       <c r="I63">
@@ -3489,7 +3494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3497,7 +3502,7 @@
         <v>42030</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B64+1)</f>
         <v>42031</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -3513,7 +3518,7 @@
         <v>6</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F64*I64*-1)</f>
         <v>-1435200</v>
       </c>
       <c r="I64">
@@ -3535,7 +3540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3543,7 +3548,7 @@
         <v>42463</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(B65+1)</f>
         <v>42464</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -3559,7 +3564,7 @@
         <v>56</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(F65*I65*-1)</f>
         <v>631750</v>
       </c>
       <c r="I65">
@@ -3581,7 +3586,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3589,7 +3594,7 @@
         <v>42403</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" ref="C66:C97" si="4">SUM(B66+1)</f>
+        <f>SUM(B66+1)</f>
         <v>42404</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -3605,7 +3610,7 @@
         <v>55</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" ref="H66:H97" si="5">SUM(F66*I66*-1)</f>
+        <f>SUM(F66*I66*-1)</f>
         <v>123907500</v>
       </c>
       <c r="I66">
@@ -3627,7 +3632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3635,7 +3640,7 @@
         <v>42037</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B67+1)</f>
         <v>42038</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -3651,7 +3656,7 @@
         <v>6</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F67*I67*-1)</f>
         <v>-717600</v>
       </c>
       <c r="I67">
@@ -3673,7 +3678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3681,7 +3686,7 @@
         <v>42157</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B68+1)</f>
         <v>42158</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -3697,7 +3702,7 @@
         <v>55</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F68*I68*-1)</f>
         <v>-109622500</v>
       </c>
       <c r="I68">
@@ -3719,7 +3724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3727,7 +3732,7 @@
         <v>42396</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B69+1)</f>
         <v>42397</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -3743,7 +3748,7 @@
         <v>41</v>
       </c>
       <c r="H69" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F69*I69*-1)</f>
         <v>393800</v>
       </c>
       <c r="I69">
@@ -3765,7 +3770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3773,7 +3778,7 @@
         <v>42383</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B70+1)</f>
         <v>42384</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -3789,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F70*I70*-1)</f>
         <v>787600</v>
       </c>
       <c r="I70">
@@ -3811,7 +3816,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3819,7 +3824,7 @@
         <v>42270</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B71+1)</f>
         <v>42271</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3835,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F71*I71*-1)</f>
         <v>-391000</v>
       </c>
       <c r="I71">
@@ -3857,7 +3862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3865,7 +3870,7 @@
         <v>42126</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B72+1)</f>
         <v>42127</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -3881,7 +3886,7 @@
         <v>55</v>
       </c>
       <c r="H72" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F72*I72*-1)</f>
         <v>-109622500</v>
       </c>
       <c r="I72">
@@ -3903,7 +3908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3911,7 +3916,7 @@
         <v>42282</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B73+1)</f>
         <v>42283</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3927,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F73*I73*-1)</f>
         <v>-7820</v>
       </c>
       <c r="I73">
@@ -3949,7 +3954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3957,7 +3962,7 @@
         <v>42260</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B74+1)</f>
         <v>42261</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -3973,7 +3978,7 @@
         <v>6</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F74*I74*-1)</f>
         <v>-782000</v>
       </c>
       <c r="I74">
@@ -3995,7 +4000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>42297</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B75+1)</f>
         <v>42298</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -4019,7 +4024,7 @@
         <v>6</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F75*I75*-1)</f>
         <v>-782000</v>
       </c>
       <c r="I75">
@@ -4041,7 +4046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4049,7 +4054,7 @@
         <v>42202</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B76+1)</f>
         <v>42203</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4065,7 +4070,7 @@
         <v>6</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F76*I76*-1)</f>
         <v>-1130400</v>
       </c>
       <c r="I76">
@@ -4087,7 +4092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4095,7 +4100,7 @@
         <v>42282</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B77+1)</f>
         <v>42283</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -4111,7 +4116,7 @@
         <v>6</v>
       </c>
       <c r="H77" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F77*I77*-1)</f>
         <v>-39100000</v>
       </c>
       <c r="I77">
@@ -4133,7 +4138,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4141,7 +4146,7 @@
         <v>42037</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B78+1)</f>
         <v>42038</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4157,7 +4162,7 @@
         <v>6</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F78*I78*-1)</f>
         <v>-717600</v>
       </c>
       <c r="I78">
@@ -4179,7 +4184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4187,7 +4192,7 @@
         <v>42456</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B79+1)</f>
         <v>42457</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -4203,7 +4208,7 @@
         <v>56</v>
       </c>
       <c r="H79" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F79*I79*-1)</f>
         <v>12635</v>
       </c>
       <c r="I79">
@@ -4225,7 +4230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4233,7 +4238,7 @@
         <v>42327</v>
       </c>
       <c r="C80" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B80+1)</f>
         <v>42328</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -4249,7 +4254,7 @@
         <v>6</v>
       </c>
       <c r="H80" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F80*I80*-1)</f>
         <v>39100000</v>
       </c>
       <c r="I80">
@@ -4271,7 +4276,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4279,7 +4284,7 @@
         <v>42337</v>
       </c>
       <c r="C81" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B81+1)</f>
         <v>42338</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -4295,7 +4300,7 @@
         <v>41</v>
       </c>
       <c r="H81" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F81*I81*-1)</f>
         <v>7876</v>
       </c>
       <c r="I81">
@@ -4317,7 +4322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4325,7 +4330,7 @@
         <v>42482</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B82+1)</f>
         <v>42483</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -4341,7 +4346,7 @@
         <v>56</v>
       </c>
       <c r="H82" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F82*I82*-1)</f>
         <v>75000000</v>
       </c>
       <c r="I82">
@@ -4363,7 +4368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4371,7 +4376,7 @@
         <v>42325</v>
       </c>
       <c r="C83" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B83+1)</f>
         <v>42326</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -4387,7 +4392,7 @@
         <v>6</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F83*I83*-1)</f>
         <v>-782000</v>
       </c>
       <c r="I83">
@@ -4409,7 +4414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4417,7 +4422,7 @@
         <v>42068</v>
       </c>
       <c r="C84" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B84+1)</f>
         <v>42069</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -4433,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="H84" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F84*I84*-1)</f>
         <v>-14352</v>
       </c>
       <c r="I84">
@@ -4455,7 +4460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4463,7 +4468,7 @@
         <v>42130</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B85+1)</f>
         <v>42131</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -4479,7 +4484,7 @@
         <v>55</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F85*I85*-1)</f>
         <v>-109622500</v>
       </c>
       <c r="I85">
@@ -4501,7 +4506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4509,7 +4514,7 @@
         <v>42334</v>
       </c>
       <c r="C86" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B86+1)</f>
         <v>42335</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -4525,7 +4530,7 @@
         <v>6</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F86*I86*-1)</f>
         <v>717600</v>
       </c>
       <c r="I86">
@@ -4547,7 +4552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4555,7 +4560,7 @@
         <v>42088</v>
       </c>
       <c r="C87" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B87+1)</f>
         <v>42089</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -4571,7 +4576,7 @@
         <v>55</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F87*I87*-1)</f>
         <v>-1239075</v>
       </c>
       <c r="I87">
@@ -4593,7 +4598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4601,7 +4606,7 @@
         <v>42122</v>
       </c>
       <c r="C88" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B88+1)</f>
         <v>42123</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -4617,7 +4622,7 @@
         <v>55</v>
       </c>
       <c r="H88" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F88*I88*-1)</f>
         <v>-1239075</v>
       </c>
       <c r="I88">
@@ -4639,7 +4644,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>42472</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B89+1)</f>
         <v>42473</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -4663,7 +4668,7 @@
         <v>43</v>
       </c>
       <c r="H89" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F89*I89*-1)</f>
         <v>970300</v>
       </c>
       <c r="I89">
@@ -4685,7 +4690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4693,7 +4698,7 @@
         <v>42069</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B90+1)</f>
         <v>42070</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -4709,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="H90" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F90*I90*-1)</f>
         <v>-71760000</v>
       </c>
       <c r="I90">
@@ -4731,7 +4736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4739,7 +4744,7 @@
         <v>42390</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B91+1)</f>
         <v>42391</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -4755,7 +4760,7 @@
         <v>41</v>
       </c>
       <c r="H91" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F91*I91*-1)</f>
         <v>39380000</v>
       </c>
       <c r="I91">
@@ -4777,7 +4782,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4785,7 +4790,7 @@
         <v>42472</v>
       </c>
       <c r="C92" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B92+1)</f>
         <v>42473</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -4801,7 +4806,7 @@
         <v>43</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F92*I92*-1)</f>
         <v>9703</v>
       </c>
       <c r="I92">
@@ -4823,7 +4828,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4831,7 +4836,7 @@
         <v>42058</v>
       </c>
       <c r="C93" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B93+1)</f>
         <v>42059</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -4847,7 +4852,7 @@
         <v>6</v>
       </c>
       <c r="H93" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F93*I93*-1)</f>
         <v>-1435200</v>
       </c>
       <c r="I93">
@@ -4869,7 +4874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4877,7 +4882,7 @@
         <v>42261</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B94+1)</f>
         <v>42262</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -4893,7 +4898,7 @@
         <v>6</v>
       </c>
       <c r="H94" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F94*I94*-1)</f>
         <v>-1435200</v>
       </c>
       <c r="I94">
@@ -4915,7 +4920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4923,7 +4928,7 @@
         <v>42195</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B95+1)</f>
         <v>42196</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -4939,7 +4944,7 @@
         <v>6</v>
       </c>
       <c r="H95" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F95*I95*-1)</f>
         <v>-565200</v>
       </c>
       <c r="I95">
@@ -4961,7 +4966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4969,7 +4974,7 @@
         <v>42039</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B96+1)</f>
         <v>42040</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -4985,7 +4990,7 @@
         <v>6</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F96*I96*-1)</f>
         <v>-14352</v>
       </c>
       <c r="I96">
@@ -5007,7 +5012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>42414</v>
       </c>
       <c r="C97" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B97+1)</f>
         <v>42415</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -5031,7 +5036,7 @@
         <v>41</v>
       </c>
       <c r="H97" s="5">
-        <f t="shared" si="5"/>
+        <f>SUM(F97*I97*-1)</f>
         <v>787600</v>
       </c>
       <c r="I97">
@@ -5053,7 +5058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5061,7 +5066,7 @@
         <v>42345</v>
       </c>
       <c r="C98" s="3">
-        <f t="shared" ref="C98:C129" si="6">SUM(B98+1)</f>
+        <f>SUM(B98+1)</f>
         <v>42346</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -5077,7 +5082,7 @@
         <v>41</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" ref="H98:H129" si="7">SUM(F98*I98*-1)</f>
+        <f>SUM(F98*I98*-1)</f>
         <v>787600</v>
       </c>
       <c r="I98">
@@ -5099,7 +5104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5107,7 +5112,7 @@
         <v>42124</v>
       </c>
       <c r="C99" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B99+1)</f>
         <v>42125</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -5123,7 +5128,7 @@
         <v>55</v>
       </c>
       <c r="H99" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F99*I99*-1)</f>
         <v>-6195375000</v>
       </c>
       <c r="I99">
@@ -5145,7 +5150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5153,7 +5158,7 @@
         <v>42420</v>
       </c>
       <c r="C100" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B100+1)</f>
         <v>42421</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -5169,7 +5174,7 @@
         <v>43</v>
       </c>
       <c r="H100" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F100*I100*-1)</f>
         <v>48515000</v>
       </c>
       <c r="I100">
@@ -5191,7 +5196,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5199,7 +5204,7 @@
         <v>42489</v>
       </c>
       <c r="C101" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B101+1)</f>
         <v>42490</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -5215,7 +5220,7 @@
         <v>43</v>
       </c>
       <c r="H101" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F101*I101*-1)</f>
         <v>48515000</v>
       </c>
       <c r="I101">
@@ -5237,7 +5242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5245,7 +5250,7 @@
         <v>42504</v>
       </c>
       <c r="C102" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B102+1)</f>
         <v>42505</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -5261,7 +5266,7 @@
         <v>6</v>
       </c>
       <c r="H102" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F102*I102*-1)</f>
         <v>56520000</v>
       </c>
       <c r="I102">
@@ -5283,7 +5288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5291,7 +5296,7 @@
         <v>42513</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B103+1)</f>
         <v>42514</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5307,7 +5312,7 @@
         <v>6</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F103*I103*-1)</f>
         <v>-1435200</v>
       </c>
       <c r="I103">
@@ -5329,7 +5334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5337,7 +5342,7 @@
         <v>42519</v>
       </c>
       <c r="C104" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B104+1)</f>
         <v>42520</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -5353,7 +5358,7 @@
         <v>6</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F104*I104*-1)</f>
         <v>-14352</v>
       </c>
       <c r="I104">
@@ -5375,7 +5380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5383,7 +5388,7 @@
         <v>42532</v>
       </c>
       <c r="C105" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B105+1)</f>
         <v>42533</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -5399,7 +5404,7 @@
         <v>55</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F105*I105*-1)</f>
         <v>1239075</v>
       </c>
       <c r="I105">
@@ -5421,7 +5426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5429,7 +5434,7 @@
         <v>42572</v>
       </c>
       <c r="C106" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B106+1)</f>
         <v>42573</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -5445,7 +5450,7 @@
         <v>41</v>
       </c>
       <c r="H106" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F106*I106*-1)</f>
         <v>39380000</v>
       </c>
       <c r="I106">
@@ -5467,7 +5472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>42586</v>
       </c>
       <c r="C107" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B107+1)</f>
         <v>42587</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -5491,7 +5496,7 @@
         <v>6</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F107*I107*-1)</f>
         <v>-56520000</v>
       </c>
       <c r="I107">
@@ -5513,7 +5518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5521,7 +5526,7 @@
         <v>42593</v>
       </c>
       <c r="C108" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B108+1)</f>
         <v>42594</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -5537,7 +5542,7 @@
         <v>6</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F108*I108*-1)</f>
         <v>-717600</v>
       </c>
       <c r="I108">
@@ -5559,7 +5564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5567,7 +5572,7 @@
         <v>42634</v>
       </c>
       <c r="C109" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B109+1)</f>
         <v>42635</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -5583,7 +5588,7 @@
         <v>6</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F109*I109*-1)</f>
         <v>-565200</v>
       </c>
       <c r="I109">
@@ -5605,7 +5610,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5613,7 +5618,7 @@
         <v>42654</v>
       </c>
       <c r="C110" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B110+1)</f>
         <v>42655</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -5629,7 +5634,7 @@
         <v>6</v>
       </c>
       <c r="H110" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F110*I110*-1)</f>
         <v>-1130400</v>
       </c>
       <c r="I110">
@@ -5651,7 +5656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5659,7 +5664,7 @@
         <v>42662</v>
       </c>
       <c r="C111" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B111+1)</f>
         <v>42663</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -5675,7 +5680,7 @@
         <v>41</v>
       </c>
       <c r="H111" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F111*I111*-1)</f>
         <v>787600</v>
       </c>
       <c r="I111">
@@ -5697,7 +5702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5705,7 +5710,7 @@
         <v>42674</v>
       </c>
       <c r="C112" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B112+1)</f>
         <v>42675</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -5721,7 +5726,7 @@
         <v>41</v>
       </c>
       <c r="H112" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F112*I112*-1)</f>
         <v>7876</v>
       </c>
       <c r="I112">
@@ -5743,7 +5748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5751,7 +5756,7 @@
         <v>42679</v>
       </c>
       <c r="C113" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B113+1)</f>
         <v>42680</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -5767,7 +5772,7 @@
         <v>6</v>
       </c>
       <c r="H113" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F113*I113*-1)</f>
         <v>-11304</v>
       </c>
       <c r="I113">
@@ -5789,7 +5794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5797,7 +5802,7 @@
         <v>42688</v>
       </c>
       <c r="C114" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B114+1)</f>
         <v>42689</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -5813,7 +5818,7 @@
         <v>6</v>
       </c>
       <c r="H114" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F114*I114*-1)</f>
         <v>-648100</v>
       </c>
       <c r="I114">
@@ -5835,7 +5840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5843,7 +5848,7 @@
         <v>42703</v>
       </c>
       <c r="C115" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B115+1)</f>
         <v>42704</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -5859,7 +5864,7 @@
         <v>41</v>
       </c>
       <c r="H115" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F115*I115*-1)</f>
         <v>393800</v>
       </c>
       <c r="I115">
@@ -5881,7 +5886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5889,7 +5894,7 @@
         <v>42708</v>
       </c>
       <c r="C116" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B116+1)</f>
         <v>42709</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -5905,7 +5910,7 @@
         <v>6</v>
       </c>
       <c r="H116" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F116*I116*-1)</f>
         <v>-717600</v>
       </c>
       <c r="I116">
@@ -5927,7 +5932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5935,7 +5940,7 @@
         <v>42716</v>
       </c>
       <c r="C117" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B117+1)</f>
         <v>42717</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -5951,7 +5956,7 @@
         <v>41</v>
       </c>
       <c r="H117" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F117*I117*-1)</f>
         <v>986500</v>
       </c>
       <c r="I117">
@@ -5973,7 +5978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>42723</v>
       </c>
       <c r="C118" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B118+1)</f>
         <v>42724</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -5997,7 +6002,7 @@
         <v>55</v>
       </c>
       <c r="H118" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F118*I118*-1)</f>
         <v>6195375000</v>
       </c>
       <c r="I118">
@@ -6019,7 +6024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6027,7 +6032,7 @@
         <v>42739</v>
       </c>
       <c r="C119" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B119+1)</f>
         <v>42740</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -6043,7 +6048,7 @@
         <v>41</v>
       </c>
       <c r="H119" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F119*I119*-1)</f>
         <v>7876</v>
       </c>
       <c r="I119">
@@ -6065,7 +6070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6073,7 +6078,7 @@
         <v>42754</v>
       </c>
       <c r="C120" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B120+1)</f>
         <v>42755</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -6089,7 +6094,7 @@
         <v>55</v>
       </c>
       <c r="H120" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F120*I120*-1)</f>
         <v>6078445000</v>
       </c>
       <c r="I120">
@@ -6111,7 +6116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6119,7 +6124,7 @@
         <v>42777</v>
       </c>
       <c r="C121" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B121+1)</f>
         <v>42778</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -6135,7 +6140,7 @@
         <v>55</v>
       </c>
       <c r="H121" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F121*I121*-1)</f>
         <v>-5481125000</v>
       </c>
       <c r="I121">
@@ -6157,7 +6162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6165,7 +6170,7 @@
         <v>42811</v>
       </c>
       <c r="C122" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B122+1)</f>
         <v>42812</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -6181,7 +6186,7 @@
         <v>55</v>
       </c>
       <c r="H122" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F122*I122*-1)</f>
         <v>-5466280000</v>
       </c>
       <c r="I122">
@@ -6203,7 +6208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6211,7 +6216,7 @@
         <v>42844</v>
       </c>
       <c r="C123" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(B123+1)</f>
         <v>42845</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -6227,7 +6232,7 @@
         <v>55</v>
       </c>
       <c r="H123" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(F123*I123*-1)</f>
         <v>-1076548</v>
       </c>
       <c r="I123">
@@ -6250,15 +6255,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O123">
+  <sortState ref="A2:N123">
     <sortCondition ref="A2:A123"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/DataSets/TradeBlotterFX.xlsx
+++ b/DataSets/TradeBlotterFX.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="34640" windowHeight="20580"/>
   </bookViews>
   <sheets>
     <sheet name="FXTrade" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FXTrade!$A$1:$N$123</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="63">
   <si>
     <t>TradeId</t>
   </si>
@@ -212,10 +215,13 @@
     <t>BaseAmount</t>
   </si>
   <si>
-    <t>ValueDate</t>
+    <t>EffectiveDate</t>
   </si>
   <si>
-    <t>EffectiveDate</t>
+    <t>Maturity Date</t>
+  </si>
+  <si>
+    <t>Expired</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +263,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +295,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -291,6 +304,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -578,7 +592,7 @@
   <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>44</v>
@@ -633,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -647,11 +661,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>42332</v>
+        <v>40871</v>
       </c>
       <c r="C2" s="3">
-        <f>SUM(B2+1)</f>
-        <v>42333</v>
+        <f t="shared" ref="C2:C33" si="0">SUM(B2+1)</f>
+        <v>40872</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
@@ -666,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="5">
-        <f>SUM(F2*I2*-1)</f>
+        <f t="shared" ref="H2:H33" si="1">SUM(F2*I2*-1)</f>
         <v>56520000</v>
       </c>
       <c r="I2">
@@ -678,14 +692,15 @@
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3">
-        <v>42498</v>
+      <c r="L2" s="8">
+        <f>DATE(YEAR(C2) + 5, MONTH(C2), DAY(C2))</f>
+        <v>42699</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -693,11 +708,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>42118</v>
+        <v>41023</v>
       </c>
       <c r="C3" s="3">
-        <f>SUM(B3+1)</f>
-        <v>42119</v>
+        <f t="shared" si="0"/>
+        <v>41024</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>45</v>
@@ -712,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="5">
-        <f>SUM(F3*I3*-1)</f>
+        <f t="shared" si="1"/>
         <v>-1435200</v>
       </c>
       <c r="I3">
@@ -724,14 +739,12 @@
       <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="3">
-        <v>42498</v>
-      </c>
+      <c r="L3" s="8"/>
       <c r="M3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -739,11 +752,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>42515</v>
+        <v>41054</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM(B4+1)</f>
-        <v>42516</v>
+        <f t="shared" si="0"/>
+        <v>41055</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
@@ -758,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="5">
-        <f>SUM(F4*I4*-1)</f>
+        <f t="shared" si="1"/>
         <v>-14352</v>
       </c>
       <c r="I4">
@@ -770,14 +783,12 @@
       <c r="K4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="3">
-        <v>42498</v>
-      </c>
+      <c r="L4" s="8"/>
       <c r="M4" t="s">
         <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -785,11 +796,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>42358</v>
+        <v>41071</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM(B5+1)</f>
-        <v>42359</v>
+        <f t="shared" si="0"/>
+        <v>41072</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>54</v>
@@ -804,7 +815,7 @@
         <v>55</v>
       </c>
       <c r="H5" s="5">
-        <f>SUM(F5*I5*-1)</f>
+        <f t="shared" si="1"/>
         <v>1239075</v>
       </c>
       <c r="I5">
@@ -816,14 +827,15 @@
       <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="3">
-        <v>42498</v>
+      <c r="L5" s="8">
+        <f t="shared" ref="L3:L66" si="2">DATE(YEAR(C5) + 5, MONTH(C5), DAY(C5))</f>
+        <v>42898</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -831,11 +843,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>42450</v>
+        <v>41109</v>
       </c>
       <c r="C6" s="3">
-        <f>SUM(B6+1)</f>
-        <v>42451</v>
+        <f t="shared" si="0"/>
+        <v>41110</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>54</v>
@@ -850,7 +862,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="5">
-        <f>SUM(F6*I6*-1)</f>
+        <f t="shared" si="1"/>
         <v>39380000</v>
       </c>
       <c r="I6">
@@ -862,14 +874,15 @@
       <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="3">
-        <v>42498</v>
+      <c r="L6" s="8">
+        <f t="shared" si="2"/>
+        <v>42936</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -877,11 +890,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>42289</v>
+        <v>41135</v>
       </c>
       <c r="C7" s="3">
-        <f>SUM(B7+1)</f>
-        <v>42290</v>
+        <f t="shared" si="0"/>
+        <v>41136</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>46</v>
@@ -896,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="5">
-        <f>SUM(F7*I7*-1)</f>
+        <f t="shared" si="1"/>
         <v>-56520000</v>
       </c>
       <c r="I7">
@@ -908,14 +921,15 @@
       <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="3">
-        <v>42498</v>
+      <c r="L7" s="8">
+        <f t="shared" si="2"/>
+        <v>42962</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -923,11 +937,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>42157</v>
+        <v>41427</v>
       </c>
       <c r="C8" s="3">
-        <f>SUM(B8+1)</f>
-        <v>42158</v>
+        <f t="shared" si="0"/>
+        <v>41428</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>45</v>
@@ -942,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="5">
-        <f>SUM(F8*I8*-1)</f>
+        <f t="shared" si="1"/>
         <v>-717600</v>
       </c>
       <c r="I8">
@@ -954,14 +968,12 @@
       <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="3">
-        <v>42498</v>
-      </c>
+      <c r="L8" s="8"/>
       <c r="M8" t="s">
         <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -969,11 +981,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>42283</v>
+        <v>41918</v>
       </c>
       <c r="C9" s="3">
-        <f>SUM(B9+1)</f>
-        <v>42284</v>
+        <f t="shared" si="0"/>
+        <v>41919</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>46</v>
@@ -988,7 +1000,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="5">
-        <f>SUM(F9*I9*-1)</f>
+        <f t="shared" si="1"/>
         <v>-565200</v>
       </c>
       <c r="I9">
@@ -1000,8 +1012,9 @@
       <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="3">
-        <v>42499</v>
+      <c r="L9" s="8">
+        <f t="shared" si="2"/>
+        <v>43745</v>
       </c>
       <c r="M9" t="s">
         <v>24</v>
@@ -1015,11 +1028,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>42187</v>
+        <v>41822</v>
       </c>
       <c r="C10" s="3">
-        <f>SUM(B10+1)</f>
-        <v>42188</v>
+        <f t="shared" si="0"/>
+        <v>41823</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
@@ -1034,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="5">
-        <f>SUM(F10*I10*-1)</f>
+        <f t="shared" si="1"/>
         <v>-1130400</v>
       </c>
       <c r="I10">
@@ -1046,8 +1059,9 @@
       <c r="K10" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>42499</v>
+      <c r="L10" s="8">
+        <f t="shared" si="2"/>
+        <v>43649</v>
       </c>
       <c r="M10" t="s">
         <v>5</v>
@@ -1061,11 +1075,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>42432</v>
+        <v>41701</v>
       </c>
       <c r="C11" s="3">
-        <f>SUM(B11+1)</f>
-        <v>42433</v>
+        <f t="shared" si="0"/>
+        <v>41702</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -1080,7 +1094,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="5">
-        <f>SUM(F11*I11*-1)</f>
+        <f t="shared" si="1"/>
         <v>787600</v>
       </c>
       <c r="I11">
@@ -1092,8 +1106,9 @@
       <c r="K11" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="3">
-        <v>42499</v>
+      <c r="L11" s="8">
+        <f t="shared" si="2"/>
+        <v>43528</v>
       </c>
       <c r="M11" t="s">
         <v>37</v>
@@ -1107,11 +1122,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>42479</v>
+        <v>41748</v>
       </c>
       <c r="C12" s="3">
-        <f>SUM(B12+1)</f>
-        <v>42480</v>
+        <f t="shared" si="0"/>
+        <v>41749</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -1126,7 +1141,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="5">
-        <f>SUM(F12*I12*-1)</f>
+        <f t="shared" si="1"/>
         <v>7876</v>
       </c>
       <c r="I12">
@@ -1138,8 +1153,9 @@
       <c r="K12" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="3">
-        <v>42499</v>
+      <c r="L12" s="8">
+        <f t="shared" si="2"/>
+        <v>43575</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
@@ -1156,7 +1172,7 @@
         <v>42212</v>
       </c>
       <c r="C13" s="3">
-        <f>SUM(B13+1)</f>
+        <f t="shared" si="0"/>
         <v>42213</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1172,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="5">
-        <f>SUM(F13*I13*-1)</f>
+        <f t="shared" si="1"/>
         <v>-11304</v>
       </c>
       <c r="I13">
@@ -1184,8 +1200,9 @@
       <c r="K13" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="3">
-        <v>42499</v>
+      <c r="L13" s="8">
+        <f t="shared" si="2"/>
+        <v>44040</v>
       </c>
       <c r="M13" t="s">
         <v>8</v>
@@ -1202,7 +1219,7 @@
         <v>42239</v>
       </c>
       <c r="C14" s="3">
-        <f>SUM(B14+1)</f>
+        <f t="shared" si="0"/>
         <v>42240</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1218,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="5">
-        <f>SUM(F14*I14*-1)</f>
+        <f t="shared" si="1"/>
         <v>-565200</v>
       </c>
       <c r="I14">
@@ -1230,8 +1247,9 @@
       <c r="K14" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="3">
-        <v>42499</v>
+      <c r="L14" s="8">
+        <f t="shared" si="2"/>
+        <v>44067</v>
       </c>
       <c r="M14" t="s">
         <v>10</v>
@@ -1248,7 +1266,7 @@
         <v>42481</v>
       </c>
       <c r="C15" s="3">
-        <f>SUM(B15+1)</f>
+        <f t="shared" si="0"/>
         <v>42482</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1264,7 +1282,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="5">
-        <f>SUM(F15*I15*-1)</f>
+        <f t="shared" si="1"/>
         <v>393800</v>
       </c>
       <c r="I15">
@@ -1276,8 +1294,9 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="3">
-        <v>42499</v>
+      <c r="L15" s="8">
+        <f t="shared" si="2"/>
+        <v>44308</v>
       </c>
       <c r="M15" t="s">
         <v>10</v>
@@ -1294,7 +1313,7 @@
         <v>42082</v>
       </c>
       <c r="C16" s="3">
-        <f>SUM(B16+1)</f>
+        <f t="shared" si="0"/>
         <v>42083</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1310,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="5">
-        <f>SUM(F16*I16*-1)</f>
+        <f t="shared" si="1"/>
         <v>-717600</v>
       </c>
       <c r="I16">
@@ -1322,14 +1341,12 @@
       <c r="K16" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="3">
-        <v>42499</v>
-      </c>
+      <c r="L16" s="8"/>
       <c r="M16" t="s">
         <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1340,7 +1357,7 @@
         <v>42482</v>
       </c>
       <c r="C17" s="3">
-        <f>SUM(B17+1)</f>
+        <f t="shared" si="0"/>
         <v>42483</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1356,7 +1373,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="5">
-        <f>SUM(F17*I17*-1)</f>
+        <f t="shared" si="1"/>
         <v>787600</v>
       </c>
       <c r="I17">
@@ -1368,8 +1385,9 @@
       <c r="K17" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="3">
-        <v>42499</v>
+      <c r="L17" s="8">
+        <f t="shared" si="2"/>
+        <v>44309</v>
       </c>
       <c r="M17" t="s">
         <v>5</v>
@@ -1386,7 +1404,7 @@
         <v>42412</v>
       </c>
       <c r="C18" s="3">
-        <f>SUM(B18+1)</f>
+        <f t="shared" si="0"/>
         <v>42413</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1402,7 +1420,7 @@
         <v>55</v>
       </c>
       <c r="H18" s="5">
-        <f>SUM(F18*I18*-1)</f>
+        <f t="shared" si="1"/>
         <v>6195375000</v>
       </c>
       <c r="I18">
@@ -1414,8 +1432,9 @@
       <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="3">
-        <v>42499</v>
+      <c r="L18" s="8">
+        <f t="shared" si="2"/>
+        <v>44240</v>
       </c>
       <c r="M18" t="s">
         <v>31</v>
@@ -1432,7 +1451,7 @@
         <v>42459</v>
       </c>
       <c r="C19" s="3">
-        <f>SUM(B19+1)</f>
+        <f t="shared" si="0"/>
         <v>42460</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1448,7 +1467,7 @@
         <v>41</v>
       </c>
       <c r="H19" s="5">
-        <f>SUM(F19*I19*-1)</f>
+        <f t="shared" si="1"/>
         <v>7876</v>
       </c>
       <c r="I19">
@@ -1460,8 +1479,9 @@
       <c r="K19" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="3">
-        <v>42500</v>
+      <c r="L19" s="8">
+        <f t="shared" si="2"/>
+        <v>44286</v>
       </c>
       <c r="M19" t="s">
         <v>28</v>
@@ -1478,7 +1498,7 @@
         <v>42354</v>
       </c>
       <c r="C20" s="3">
-        <f>SUM(B20+1)</f>
+        <f t="shared" si="0"/>
         <v>42355</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1494,7 +1514,7 @@
         <v>55</v>
       </c>
       <c r="H20" s="5">
-        <f>SUM(F20*I20*-1)</f>
+        <f t="shared" si="1"/>
         <v>6195375000</v>
       </c>
       <c r="I20">
@@ -1506,8 +1526,9 @@
       <c r="K20" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="3">
-        <v>42500</v>
+      <c r="L20" s="8">
+        <f t="shared" si="2"/>
+        <v>44182</v>
       </c>
       <c r="M20" t="s">
         <v>30</v>
@@ -1524,7 +1545,7 @@
         <v>42097</v>
       </c>
       <c r="C21" s="3">
-        <f>SUM(B21+1)</f>
+        <f t="shared" si="0"/>
         <v>42098</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1540,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="H21" s="5">
-        <f>SUM(F21*I21*-1)</f>
+        <f t="shared" si="1"/>
         <v>-5481125000</v>
       </c>
       <c r="I21">
@@ -1552,14 +1573,12 @@
       <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="3">
-        <v>42500</v>
-      </c>
+      <c r="L21" s="8"/>
       <c r="M21" t="s">
         <v>31</v>
       </c>
       <c r="N21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1570,7 +1589,7 @@
         <v>42155</v>
       </c>
       <c r="C22" s="3">
-        <f>SUM(B22+1)</f>
+        <f t="shared" si="0"/>
         <v>42156</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1586,7 +1605,7 @@
         <v>55</v>
       </c>
       <c r="H22" s="5">
-        <f>SUM(F22*I22*-1)</f>
+        <f t="shared" si="1"/>
         <v>-5481125000</v>
       </c>
       <c r="I22">
@@ -1598,14 +1617,12 @@
       <c r="K22" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="3">
-        <v>42500</v>
-      </c>
+      <c r="L22" s="8"/>
       <c r="M22" t="s">
         <v>14</v>
       </c>
       <c r="N22" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1616,7 +1633,7 @@
         <v>42122</v>
       </c>
       <c r="C23" s="3">
-        <f>SUM(B23+1)</f>
+        <f t="shared" si="0"/>
         <v>42123</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1632,7 +1649,7 @@
         <v>55</v>
       </c>
       <c r="H23" s="5">
-        <f>SUM(F23*I23*-1)</f>
+        <f t="shared" si="1"/>
         <v>-1096225</v>
       </c>
       <c r="I23">
@@ -1644,14 +1661,12 @@
       <c r="K23" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="3">
-        <v>42500</v>
-      </c>
+      <c r="L23" s="8"/>
       <c r="M23" t="s">
         <v>8</v>
       </c>
       <c r="N23" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1662,7 +1677,7 @@
         <v>42276</v>
       </c>
       <c r="C24" s="3">
-        <f>SUM(B24+1)</f>
+        <f t="shared" si="0"/>
         <v>42277</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1678,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="5">
-        <f>SUM(F24*I24*-1)</f>
+        <f t="shared" si="1"/>
         <v>-565200</v>
       </c>
       <c r="I24">
@@ -1690,8 +1705,9 @@
       <c r="K24" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="3">
-        <v>42500</v>
+      <c r="L24" s="8">
+        <f t="shared" si="2"/>
+        <v>44104</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
@@ -1708,7 +1724,7 @@
         <v>42350</v>
       </c>
       <c r="C25" s="3">
-        <f>SUM(B25+1)</f>
+        <f t="shared" si="0"/>
         <v>42351</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1724,7 +1740,7 @@
         <v>55</v>
       </c>
       <c r="H25" s="5">
-        <f>SUM(F25*I25*-1)</f>
+        <f t="shared" si="1"/>
         <v>1239075</v>
       </c>
       <c r="I25">
@@ -1736,8 +1752,9 @@
       <c r="K25" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="3">
-        <v>42500</v>
+      <c r="L25" s="8">
+        <f t="shared" si="2"/>
+        <v>44178</v>
       </c>
       <c r="M25" t="s">
         <v>34</v>
@@ -1754,7 +1771,7 @@
         <v>42487</v>
       </c>
       <c r="C26" s="3">
-        <f>SUM(B26+1)</f>
+        <f t="shared" si="0"/>
         <v>42488</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1770,7 +1787,7 @@
         <v>41</v>
       </c>
       <c r="H26" s="5">
-        <f>SUM(F26*I26*-1)</f>
+        <f t="shared" si="1"/>
         <v>7876</v>
       </c>
       <c r="I26">
@@ -1782,8 +1799,9 @@
       <c r="K26" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="3">
-        <v>42500</v>
+      <c r="L26" s="8">
+        <f t="shared" si="2"/>
+        <v>44314</v>
       </c>
       <c r="M26" t="s">
         <v>8</v>
@@ -1800,7 +1818,7 @@
         <v>42444</v>
       </c>
       <c r="C27" s="3">
-        <f>SUM(B27+1)</f>
+        <f t="shared" si="0"/>
         <v>42445</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1816,7 +1834,7 @@
         <v>41</v>
       </c>
       <c r="H27" s="5">
-        <f>SUM(F27*I27*-1)</f>
+        <f t="shared" si="1"/>
         <v>39380000</v>
       </c>
       <c r="I27">
@@ -1828,8 +1846,9 @@
       <c r="K27" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="3">
-        <v>42500</v>
+      <c r="L27" s="8">
+        <f t="shared" si="2"/>
+        <v>44271</v>
       </c>
       <c r="M27" t="s">
         <v>31</v>
@@ -1846,7 +1865,7 @@
         <v>42270</v>
       </c>
       <c r="C28" s="3">
-        <f>SUM(B28+1)</f>
+        <f t="shared" si="0"/>
         <v>42271</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1862,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="H28" s="5">
-        <f>SUM(F28*I28*-1)</f>
+        <f t="shared" si="1"/>
         <v>-56520000</v>
       </c>
       <c r="I28">
@@ -1874,8 +1893,9 @@
       <c r="K28" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="3">
-        <v>42500</v>
+      <c r="L28" s="8">
+        <f t="shared" si="2"/>
+        <v>44098</v>
       </c>
       <c r="M28" t="s">
         <v>22</v>
@@ -1892,7 +1912,7 @@
         <v>42174</v>
       </c>
       <c r="C29" s="3">
-        <f>SUM(B29+1)</f>
+        <f t="shared" si="0"/>
         <v>42175</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1908,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="H29" s="5">
-        <f>SUM(F29*I29*-1)</f>
+        <f t="shared" si="1"/>
         <v>-1130400</v>
       </c>
       <c r="I29">
@@ -1920,8 +1940,9 @@
       <c r="K29" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="3">
-        <v>42500</v>
+      <c r="L29" s="8">
+        <f t="shared" si="2"/>
+        <v>44002</v>
       </c>
       <c r="M29" t="s">
         <v>12</v>
@@ -1938,7 +1959,7 @@
         <v>42253</v>
       </c>
       <c r="C30" s="3">
-        <f>SUM(B30+1)</f>
+        <f t="shared" si="0"/>
         <v>42254</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1954,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="5">
-        <f>SUM(F30*I30*-1)</f>
+        <f t="shared" si="1"/>
         <v>-11304</v>
       </c>
       <c r="I30">
@@ -1966,8 +1987,9 @@
       <c r="K30" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="3">
-        <v>42500</v>
+      <c r="L30" s="8">
+        <f t="shared" si="2"/>
+        <v>44081</v>
       </c>
       <c r="M30" t="s">
         <v>28</v>
@@ -1984,7 +2006,7 @@
         <v>42226</v>
       </c>
       <c r="C31" s="3">
-        <f>SUM(B31+1)</f>
+        <f t="shared" si="0"/>
         <v>42227</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2000,7 +2022,7 @@
         <v>6</v>
       </c>
       <c r="H31" s="5">
-        <f>SUM(F31*I31*-1)</f>
+        <f t="shared" si="1"/>
         <v>-56520000</v>
       </c>
       <c r="I31">
@@ -2012,8 +2034,9 @@
       <c r="K31" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="3">
-        <v>42500</v>
+      <c r="L31" s="8">
+        <f t="shared" si="2"/>
+        <v>44054</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
@@ -2030,7 +2053,7 @@
         <v>42030</v>
       </c>
       <c r="C32" s="3">
-        <f>SUM(B32+1)</f>
+        <f t="shared" si="0"/>
         <v>42031</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2046,7 +2069,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="5">
-        <f>SUM(F32*I32*-1)</f>
+        <f t="shared" si="1"/>
         <v>-14352</v>
       </c>
       <c r="I32">
@@ -2058,14 +2081,12 @@
       <c r="K32" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L32" s="8"/>
       <c r="M32" t="s">
         <v>34</v>
       </c>
       <c r="N32" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2076,7 +2097,7 @@
         <v>42443</v>
       </c>
       <c r="C33" s="3">
-        <f>SUM(B33+1)</f>
+        <f t="shared" si="0"/>
         <v>42444</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2092,7 +2113,7 @@
         <v>41</v>
       </c>
       <c r="H33" s="5">
-        <f>SUM(F33*I33*-1)</f>
+        <f t="shared" si="1"/>
         <v>7876</v>
       </c>
       <c r="I33">
@@ -2104,8 +2125,9 @@
       <c r="K33" t="s">
         <v>27</v>
       </c>
-      <c r="L33" s="3">
-        <v>42501</v>
+      <c r="L33" s="8">
+        <f t="shared" si="2"/>
+        <v>44270</v>
       </c>
       <c r="M33" t="s">
         <v>35</v>
@@ -2122,7 +2144,7 @@
         <v>42056</v>
       </c>
       <c r="C34" s="3">
-        <f>SUM(B34+1)</f>
+        <f t="shared" ref="C34:C65" si="3">SUM(B34+1)</f>
         <v>42057</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2138,7 +2160,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="5">
-        <f>SUM(F34*I34*-1)</f>
+        <f t="shared" ref="H34:H65" si="4">SUM(F34*I34*-1)</f>
         <v>-71760000</v>
       </c>
       <c r="I34">
@@ -2150,14 +2172,12 @@
       <c r="K34" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L34" s="8"/>
       <c r="M34" t="s">
         <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2168,7 +2188,7 @@
         <v>42344</v>
       </c>
       <c r="C35" s="3">
-        <f>SUM(B35+1)</f>
+        <f t="shared" si="3"/>
         <v>42345</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -2184,7 +2204,7 @@
         <v>55</v>
       </c>
       <c r="H35" s="5">
-        <f>SUM(F35*I35*-1)</f>
+        <f t="shared" si="4"/>
         <v>61953750</v>
       </c>
       <c r="I35">
@@ -2196,8 +2216,9 @@
       <c r="K35" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="3">
-        <v>42501</v>
+      <c r="L35" s="8">
+        <f t="shared" si="2"/>
+        <v>44172</v>
       </c>
       <c r="M35" t="s">
         <v>18</v>
@@ -2214,7 +2235,7 @@
         <v>42099</v>
       </c>
       <c r="C36" s="3">
-        <f>SUM(B36+1)</f>
+        <f t="shared" si="3"/>
         <v>42100</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -2230,7 +2251,7 @@
         <v>55</v>
       </c>
       <c r="H36" s="5">
-        <f>SUM(F36*I36*-1)</f>
+        <f t="shared" si="4"/>
         <v>-1096225</v>
       </c>
       <c r="I36">
@@ -2242,14 +2263,12 @@
       <c r="K36" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L36" s="8"/>
       <c r="M36" t="s">
         <v>8</v>
       </c>
       <c r="N36" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2260,7 +2279,7 @@
         <v>42314</v>
       </c>
       <c r="C37" s="3">
-        <f>SUM(B37+1)</f>
+        <f t="shared" si="3"/>
         <v>42315</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -2276,7 +2295,7 @@
         <v>6</v>
       </c>
       <c r="H37" s="5">
-        <f>SUM(F37*I37*-1)</f>
+        <f t="shared" si="4"/>
         <v>-56520000</v>
       </c>
       <c r="I37">
@@ -2288,8 +2307,9 @@
       <c r="K37" t="s">
         <v>19</v>
       </c>
-      <c r="L37" s="3">
-        <v>42501</v>
+      <c r="L37" s="8">
+        <f t="shared" si="2"/>
+        <v>44142</v>
       </c>
       <c r="M37" t="s">
         <v>22</v>
@@ -2306,7 +2326,7 @@
         <v>42357</v>
       </c>
       <c r="C38" s="3">
-        <f>SUM(B38+1)</f>
+        <f t="shared" si="3"/>
         <v>42358</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2322,7 +2342,7 @@
         <v>55</v>
       </c>
       <c r="H38" s="5">
-        <f>SUM(F38*I38*-1)</f>
+        <f t="shared" si="4"/>
         <v>6195375000</v>
       </c>
       <c r="I38">
@@ -2334,8 +2354,9 @@
       <c r="K38" t="s">
         <v>29</v>
       </c>
-      <c r="L38" s="3">
-        <v>42501</v>
+      <c r="L38" s="8">
+        <f t="shared" si="2"/>
+        <v>44185</v>
       </c>
       <c r="M38" t="s">
         <v>38</v>
@@ -2352,7 +2373,7 @@
         <v>42130</v>
       </c>
       <c r="C39" s="3">
-        <f>SUM(B39+1)</f>
+        <f t="shared" si="3"/>
         <v>42131</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2368,7 +2389,7 @@
         <v>55</v>
       </c>
       <c r="H39" s="5">
-        <f>SUM(F39*I39*-1)</f>
+        <f t="shared" si="4"/>
         <v>-5481125000</v>
       </c>
       <c r="I39">
@@ -2380,14 +2401,12 @@
       <c r="K39" t="s">
         <v>29</v>
       </c>
-      <c r="L39" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L39" s="8"/>
       <c r="M39" t="s">
         <v>38</v>
       </c>
       <c r="N39" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2398,7 +2417,7 @@
         <v>42199</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(B40+1)</f>
+        <f t="shared" si="3"/>
         <v>42200</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2414,7 +2433,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="5">
-        <f>SUM(F40*I40*-1)</f>
+        <f t="shared" si="4"/>
         <v>-1130400</v>
       </c>
       <c r="I40">
@@ -2426,8 +2445,9 @@
       <c r="K40" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="3">
-        <v>42501</v>
+      <c r="L40" s="8">
+        <f t="shared" si="2"/>
+        <v>44027</v>
       </c>
       <c r="M40" t="s">
         <v>16</v>
@@ -2444,7 +2464,7 @@
         <v>42058</v>
       </c>
       <c r="C41" s="3">
-        <f>SUM(B41+1)</f>
+        <f t="shared" si="3"/>
         <v>42059</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -2460,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="H41" s="5">
-        <f>SUM(F41*I41*-1)</f>
+        <f t="shared" si="4"/>
         <v>-14352</v>
       </c>
       <c r="I41">
@@ -2472,14 +2492,12 @@
       <c r="K41" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L41" s="8"/>
       <c r="M41" t="s">
         <v>35</v>
       </c>
       <c r="N41" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2490,7 +2508,7 @@
         <v>42397</v>
       </c>
       <c r="C42" s="3">
-        <f>SUM(B42+1)</f>
+        <f t="shared" si="3"/>
         <v>42398</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -2506,7 +2524,7 @@
         <v>55</v>
       </c>
       <c r="H42" s="5">
-        <f>SUM(F42*I42*-1)</f>
+        <f t="shared" si="4"/>
         <v>6195375000</v>
       </c>
       <c r="I42">
@@ -2518,8 +2536,9 @@
       <c r="K42" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="3">
-        <v>42501</v>
+      <c r="L42" s="8">
+        <f t="shared" si="2"/>
+        <v>44225</v>
       </c>
       <c r="M42" t="s">
         <v>38</v>
@@ -2536,7 +2555,7 @@
         <v>42375</v>
       </c>
       <c r="C43" s="3">
-        <f>SUM(B43+1)</f>
+        <f t="shared" si="3"/>
         <v>42376</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -2552,7 +2571,7 @@
         <v>55</v>
       </c>
       <c r="H43" s="5">
-        <f>SUM(F43*I43*-1)</f>
+        <f t="shared" si="4"/>
         <v>123907500</v>
       </c>
       <c r="I43">
@@ -2564,8 +2583,9 @@
       <c r="K43" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="3">
-        <v>42501</v>
+      <c r="L43" s="8">
+        <f t="shared" si="2"/>
+        <v>44203</v>
       </c>
       <c r="M43" t="s">
         <v>32</v>
@@ -2582,7 +2602,7 @@
         <v>42085</v>
       </c>
       <c r="C44" s="3">
-        <f>SUM(B44+1)</f>
+        <f t="shared" si="3"/>
         <v>42086</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -2598,7 +2618,7 @@
         <v>55</v>
       </c>
       <c r="H44" s="5">
-        <f>SUM(F44*I44*-1)</f>
+        <f t="shared" si="4"/>
         <v>-5481125000</v>
       </c>
       <c r="I44">
@@ -2610,14 +2630,12 @@
       <c r="K44" t="s">
         <v>13</v>
       </c>
-      <c r="L44" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L44" s="8"/>
       <c r="M44" t="s">
         <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2628,7 +2646,7 @@
         <v>42321</v>
       </c>
       <c r="C45" s="3">
-        <f>SUM(B45+1)</f>
+        <f t="shared" si="3"/>
         <v>42322</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2644,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="H45" s="5">
-        <f>SUM(F45*I45*-1)</f>
+        <f t="shared" si="4"/>
         <v>-56520000</v>
       </c>
       <c r="I45">
@@ -2656,8 +2674,9 @@
       <c r="K45" t="s">
         <v>29</v>
       </c>
-      <c r="L45" s="3">
-        <v>42501</v>
+      <c r="L45" s="8">
+        <f t="shared" si="2"/>
+        <v>44149</v>
       </c>
       <c r="M45" t="s">
         <v>30</v>
@@ -2674,7 +2693,7 @@
         <v>42024</v>
       </c>
       <c r="C46" s="3">
-        <f>SUM(B46+1)</f>
+        <f t="shared" si="3"/>
         <v>42025</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -2690,7 +2709,7 @@
         <v>6</v>
       </c>
       <c r="H46" s="5">
-        <f>SUM(F46*I46*-1)</f>
+        <f t="shared" si="4"/>
         <v>-1435200</v>
       </c>
       <c r="I46">
@@ -2702,14 +2721,12 @@
       <c r="K46" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L46" s="8"/>
       <c r="M46" t="s">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2720,7 +2737,7 @@
         <v>42151</v>
       </c>
       <c r="C47" s="3">
-        <f>SUM(B47+1)</f>
+        <f t="shared" si="3"/>
         <v>42152</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -2736,7 +2753,7 @@
         <v>55</v>
       </c>
       <c r="H47" s="5">
-        <f>SUM(F47*I47*-1)</f>
+        <f t="shared" si="4"/>
         <v>-109622500</v>
       </c>
       <c r="I47">
@@ -2748,14 +2765,12 @@
       <c r="K47" t="s">
         <v>36</v>
       </c>
-      <c r="L47" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L47" s="8"/>
       <c r="M47" t="s">
         <v>37</v>
       </c>
       <c r="N47" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2766,7 +2781,7 @@
         <v>42464</v>
       </c>
       <c r="C48" s="3">
-        <f>SUM(B48+1)</f>
+        <f t="shared" si="3"/>
         <v>42465</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -2782,7 +2797,7 @@
         <v>41</v>
       </c>
       <c r="H48" s="5">
-        <f>SUM(F48*I48*-1)</f>
+        <f t="shared" si="4"/>
         <v>39380000</v>
       </c>
       <c r="I48">
@@ -2794,8 +2809,9 @@
       <c r="K48" t="s">
         <v>29</v>
       </c>
-      <c r="L48" s="3">
-        <v>42501</v>
+      <c r="L48" s="8">
+        <f t="shared" si="2"/>
+        <v>44291</v>
       </c>
       <c r="M48" t="s">
         <v>38</v>
@@ -2812,7 +2828,7 @@
         <v>42447</v>
       </c>
       <c r="C49" s="3">
-        <f>SUM(B49+1)</f>
+        <f t="shared" si="3"/>
         <v>42448</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -2828,7 +2844,7 @@
         <v>41</v>
       </c>
       <c r="H49" s="5">
-        <f>SUM(F49*I49*-1)</f>
+        <f t="shared" si="4"/>
         <v>39380000</v>
       </c>
       <c r="I49">
@@ -2840,8 +2856,9 @@
       <c r="K49" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="3">
-        <v>42501</v>
+      <c r="L49" s="8">
+        <f t="shared" si="2"/>
+        <v>44274</v>
       </c>
       <c r="M49" t="s">
         <v>31</v>
@@ -2858,7 +2875,7 @@
         <v>42106</v>
       </c>
       <c r="C50" s="3">
-        <f>SUM(B50+1)</f>
+        <f t="shared" si="3"/>
         <v>42107</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -2874,7 +2891,7 @@
         <v>55</v>
       </c>
       <c r="H50" s="5">
-        <f>SUM(F50*I50*-1)</f>
+        <f t="shared" si="4"/>
         <v>-1096225</v>
       </c>
       <c r="I50">
@@ -2886,14 +2903,12 @@
       <c r="K50" t="s">
         <v>27</v>
       </c>
-      <c r="L50" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L50" s="8"/>
       <c r="M50" t="s">
         <v>28</v>
       </c>
       <c r="N50" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -2904,7 +2919,7 @@
         <v>42124</v>
       </c>
       <c r="C51" s="3">
-        <f>SUM(B51+1)</f>
+        <f t="shared" si="3"/>
         <v>42125</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -2920,7 +2935,7 @@
         <v>55</v>
       </c>
       <c r="H51" s="5">
-        <f>SUM(F51*I51*-1)</f>
+        <f t="shared" si="4"/>
         <v>-109622500</v>
       </c>
       <c r="I51">
@@ -2932,14 +2947,12 @@
       <c r="K51" t="s">
         <v>15</v>
       </c>
-      <c r="L51" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L51" s="8"/>
       <c r="M51" t="s">
         <v>32</v>
       </c>
       <c r="N51" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -2950,7 +2963,7 @@
         <v>42394</v>
       </c>
       <c r="C52" s="3">
-        <f>SUM(B52+1)</f>
+        <f t="shared" si="3"/>
         <v>42395</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -2966,7 +2979,7 @@
         <v>55</v>
       </c>
       <c r="H52" s="5">
-        <f>SUM(F52*I52*-1)</f>
+        <f t="shared" si="4"/>
         <v>61953750</v>
       </c>
       <c r="I52">
@@ -2978,8 +2991,9 @@
       <c r="K52" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="3">
-        <v>42501</v>
+      <c r="L52" s="8">
+        <f t="shared" si="2"/>
+        <v>44222</v>
       </c>
       <c r="M52" t="s">
         <v>10</v>
@@ -2996,7 +3010,7 @@
         <v>42444</v>
       </c>
       <c r="C53" s="3">
-        <f>SUM(B53+1)</f>
+        <f t="shared" si="3"/>
         <v>42445</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -3012,7 +3026,7 @@
         <v>56</v>
       </c>
       <c r="H53" s="5">
-        <f>SUM(F53*I53*-1)</f>
+        <f t="shared" si="4"/>
         <v>12635</v>
       </c>
       <c r="I53">
@@ -3024,8 +3038,9 @@
       <c r="K53" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="3">
-        <v>42501</v>
+      <c r="L53" s="8">
+        <f t="shared" si="2"/>
+        <v>44271</v>
       </c>
       <c r="M53" t="s">
         <v>35</v>
@@ -3042,7 +3057,7 @@
         <v>42321</v>
       </c>
       <c r="C54" s="3">
-        <f>SUM(B54+1)</f>
+        <f t="shared" si="3"/>
         <v>42322</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -3058,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="H54" s="5">
-        <f>SUM(F54*I54*-1)</f>
+        <f t="shared" si="4"/>
         <v>-56520000</v>
       </c>
       <c r="I54">
@@ -3070,8 +3085,9 @@
       <c r="K54" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="3">
-        <v>42501</v>
+      <c r="L54" s="8">
+        <f t="shared" si="2"/>
+        <v>44149</v>
       </c>
       <c r="M54" t="s">
         <v>31</v>
@@ -3088,7 +3104,7 @@
         <v>42086</v>
       </c>
       <c r="C55" s="3">
-        <f>SUM(B55+1)</f>
+        <f t="shared" si="3"/>
         <v>42087</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -3104,7 +3120,7 @@
         <v>55</v>
       </c>
       <c r="H55" s="5">
-        <f>SUM(F55*I55*-1)</f>
+        <f t="shared" si="4"/>
         <v>-54811250</v>
       </c>
       <c r="I55">
@@ -3116,14 +3132,12 @@
       <c r="K55" t="s">
         <v>23</v>
       </c>
-      <c r="L55" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L55" s="8"/>
       <c r="M55" t="s">
         <v>24</v>
       </c>
       <c r="N55" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3134,7 +3148,7 @@
         <v>42275</v>
       </c>
       <c r="C56" s="3">
-        <f>SUM(B56+1)</f>
+        <f t="shared" si="3"/>
         <v>42276</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -3150,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="H56" s="5">
-        <f>SUM(F56*I56*-1)</f>
+        <f t="shared" si="4"/>
         <v>-782000</v>
       </c>
       <c r="I56">
@@ -3162,8 +3176,9 @@
       <c r="K56" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="3">
-        <v>42501</v>
+      <c r="L56" s="8">
+        <f t="shared" si="2"/>
+        <v>44103</v>
       </c>
       <c r="M56" t="s">
         <v>12</v>
@@ -3180,7 +3195,7 @@
         <v>42211</v>
       </c>
       <c r="C57" s="3">
-        <f>SUM(B57+1)</f>
+        <f t="shared" si="3"/>
         <v>42212</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -3196,7 +3211,7 @@
         <v>6</v>
       </c>
       <c r="H57" s="5">
-        <f>SUM(F57*I57*-1)</f>
+        <f t="shared" si="4"/>
         <v>-565200</v>
       </c>
       <c r="I57">
@@ -3208,8 +3223,9 @@
       <c r="K57" t="s">
         <v>17</v>
       </c>
-      <c r="L57" s="3">
-        <v>42501</v>
+      <c r="L57" s="8">
+        <f t="shared" si="2"/>
+        <v>44039</v>
       </c>
       <c r="M57" t="s">
         <v>18</v>
@@ -3226,7 +3242,7 @@
         <v>42344</v>
       </c>
       <c r="C58" s="3">
-        <f>SUM(B58+1)</f>
+        <f t="shared" si="3"/>
         <v>42345</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -3242,7 +3258,7 @@
         <v>55</v>
       </c>
       <c r="H58" s="5">
-        <f>SUM(F58*I58*-1)</f>
+        <f t="shared" si="4"/>
         <v>123907500</v>
       </c>
       <c r="I58">
@@ -3254,8 +3270,9 @@
       <c r="K58" t="s">
         <v>15</v>
       </c>
-      <c r="L58" s="3">
-        <v>42501</v>
+      <c r="L58" s="8">
+        <f t="shared" si="2"/>
+        <v>44172</v>
       </c>
       <c r="M58" t="s">
         <v>16</v>
@@ -3272,7 +3289,7 @@
         <v>42300</v>
       </c>
       <c r="C59" s="3">
-        <f>SUM(B59+1)</f>
+        <f t="shared" si="3"/>
         <v>42301</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -3288,7 +3305,7 @@
         <v>6</v>
       </c>
       <c r="H59" s="5">
-        <f>SUM(F59*I59*-1)</f>
+        <f t="shared" si="4"/>
         <v>-7820</v>
       </c>
       <c r="I59">
@@ -3300,8 +3317,9 @@
       <c r="K59" t="s">
         <v>7</v>
       </c>
-      <c r="L59" s="3">
-        <v>42501</v>
+      <c r="L59" s="8">
+        <f t="shared" si="2"/>
+        <v>44128</v>
       </c>
       <c r="M59" t="s">
         <v>28</v>
@@ -3318,7 +3336,7 @@
         <v>42371</v>
       </c>
       <c r="C60" s="3">
-        <f>SUM(B60+1)</f>
+        <f t="shared" si="3"/>
         <v>42372</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -3334,7 +3352,7 @@
         <v>55</v>
       </c>
       <c r="H60" s="5">
-        <f>SUM(F60*I60*-1)</f>
+        <f t="shared" si="4"/>
         <v>123907500</v>
       </c>
       <c r="I60">
@@ -3346,8 +3364,9 @@
       <c r="K60" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="3">
-        <v>42501</v>
+      <c r="L60" s="8">
+        <f t="shared" si="2"/>
+        <v>44199</v>
       </c>
       <c r="M60" t="s">
         <v>32</v>
@@ -3364,7 +3383,7 @@
         <v>42005</v>
       </c>
       <c r="C61" s="3">
-        <f>SUM(B61+1)</f>
+        <f t="shared" si="3"/>
         <v>42006</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -3380,7 +3399,7 @@
         <v>6</v>
       </c>
       <c r="H61" s="5">
-        <f>SUM(F61*I61*-1)</f>
+        <f t="shared" si="4"/>
         <v>-14352</v>
       </c>
       <c r="I61">
@@ -3392,14 +3411,12 @@
       <c r="K61" t="s">
         <v>7</v>
       </c>
-      <c r="L61" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L61" s="8"/>
       <c r="M61" t="s">
         <v>28</v>
       </c>
       <c r="N61" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3410,7 +3427,7 @@
         <v>42019</v>
       </c>
       <c r="C62" s="3">
-        <f>SUM(B62+1)</f>
+        <f t="shared" si="3"/>
         <v>42020</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3426,7 +3443,7 @@
         <v>6</v>
       </c>
       <c r="H62" s="5">
-        <f>SUM(F62*I62*-1)</f>
+        <f t="shared" si="4"/>
         <v>-1435200</v>
       </c>
       <c r="I62">
@@ -3438,14 +3455,12 @@
       <c r="K62" t="s">
         <v>36</v>
       </c>
-      <c r="L62" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L62" s="8"/>
       <c r="M62" t="s">
         <v>37</v>
       </c>
       <c r="N62" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -3456,7 +3471,7 @@
         <v>42484</v>
       </c>
       <c r="C63" s="3">
-        <f>SUM(B63+1)</f>
+        <f t="shared" si="3"/>
         <v>42485</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -3472,7 +3487,7 @@
         <v>56</v>
       </c>
       <c r="H63" s="5">
-        <f>SUM(F63*I63*-1)</f>
+        <f t="shared" si="4"/>
         <v>1263500</v>
       </c>
       <c r="I63">
@@ -3484,8 +3499,9 @@
       <c r="K63" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="3">
-        <v>42501</v>
+      <c r="L63" s="8">
+        <f t="shared" si="2"/>
+        <v>44311</v>
       </c>
       <c r="M63" t="s">
         <v>32</v>
@@ -3502,7 +3518,7 @@
         <v>42030</v>
       </c>
       <c r="C64" s="3">
-        <f>SUM(B64+1)</f>
+        <f t="shared" si="3"/>
         <v>42031</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -3518,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="H64" s="5">
-        <f>SUM(F64*I64*-1)</f>
+        <f t="shared" si="4"/>
         <v>-1435200</v>
       </c>
       <c r="I64">
@@ -3530,14 +3546,12 @@
       <c r="K64" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L64" s="8"/>
       <c r="M64" t="s">
         <v>12</v>
       </c>
       <c r="N64" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3548,7 +3562,7 @@
         <v>42463</v>
       </c>
       <c r="C65" s="3">
-        <f>SUM(B65+1)</f>
+        <f t="shared" si="3"/>
         <v>42464</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -3564,7 +3578,7 @@
         <v>56</v>
       </c>
       <c r="H65" s="5">
-        <f>SUM(F65*I65*-1)</f>
+        <f t="shared" si="4"/>
         <v>631750</v>
       </c>
       <c r="I65">
@@ -3576,8 +3590,9 @@
       <c r="K65" t="s">
         <v>19</v>
       </c>
-      <c r="L65" s="3">
-        <v>42501</v>
+      <c r="L65" s="8">
+        <f t="shared" si="2"/>
+        <v>44290</v>
       </c>
       <c r="M65" t="s">
         <v>20</v>
@@ -3594,7 +3609,7 @@
         <v>42403</v>
       </c>
       <c r="C66" s="3">
-        <f>SUM(B66+1)</f>
+        <f t="shared" ref="C66:C97" si="5">SUM(B66+1)</f>
         <v>42404</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -3610,7 +3625,7 @@
         <v>55</v>
       </c>
       <c r="H66" s="5">
-        <f>SUM(F66*I66*-1)</f>
+        <f t="shared" ref="H66:H97" si="6">SUM(F66*I66*-1)</f>
         <v>123907500</v>
       </c>
       <c r="I66">
@@ -3622,8 +3637,9 @@
       <c r="K66" t="s">
         <v>36</v>
       </c>
-      <c r="L66" s="3">
-        <v>42501</v>
+      <c r="L66" s="8">
+        <f t="shared" si="2"/>
+        <v>44231</v>
       </c>
       <c r="M66" t="s">
         <v>16</v>
@@ -3640,7 +3656,7 @@
         <v>42037</v>
       </c>
       <c r="C67" s="3">
-        <f>SUM(B67+1)</f>
+        <f t="shared" si="5"/>
         <v>42038</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -3656,7 +3672,7 @@
         <v>6</v>
       </c>
       <c r="H67" s="5">
-        <f>SUM(F67*I67*-1)</f>
+        <f t="shared" si="6"/>
         <v>-717600</v>
       </c>
       <c r="I67">
@@ -3668,14 +3684,12 @@
       <c r="K67" t="s">
         <v>9</v>
       </c>
-      <c r="L67" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L67" s="8"/>
       <c r="M67" t="s">
         <v>10</v>
       </c>
       <c r="N67" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -3686,7 +3700,7 @@
         <v>42157</v>
       </c>
       <c r="C68" s="3">
-        <f>SUM(B68+1)</f>
+        <f t="shared" si="5"/>
         <v>42158</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -3702,7 +3716,7 @@
         <v>55</v>
       </c>
       <c r="H68" s="5">
-        <f>SUM(F68*I68*-1)</f>
+        <f t="shared" si="6"/>
         <v>-109622500</v>
       </c>
       <c r="I68">
@@ -3714,14 +3728,12 @@
       <c r="K68" t="s">
         <v>4</v>
       </c>
-      <c r="L68" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L68" s="8"/>
       <c r="M68" t="s">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3732,7 +3744,7 @@
         <v>42396</v>
       </c>
       <c r="C69" s="3">
-        <f>SUM(B69+1)</f>
+        <f t="shared" si="5"/>
         <v>42397</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -3748,7 +3760,7 @@
         <v>41</v>
       </c>
       <c r="H69" s="5">
-        <f>SUM(F69*I69*-1)</f>
+        <f t="shared" si="6"/>
         <v>393800</v>
       </c>
       <c r="I69">
@@ -3760,8 +3772,9 @@
       <c r="K69" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="3">
-        <v>42501</v>
+      <c r="L69" s="8">
+        <f t="shared" ref="L67:L123" si="7">DATE(YEAR(C69) + 5, MONTH(C69), DAY(C69))</f>
+        <v>44224</v>
       </c>
       <c r="M69" t="s">
         <v>24</v>
@@ -3778,7 +3791,7 @@
         <v>42383</v>
       </c>
       <c r="C70" s="3">
-        <f>SUM(B70+1)</f>
+        <f t="shared" si="5"/>
         <v>42384</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -3794,7 +3807,7 @@
         <v>41</v>
       </c>
       <c r="H70" s="5">
-        <f>SUM(F70*I70*-1)</f>
+        <f t="shared" si="6"/>
         <v>787600</v>
       </c>
       <c r="I70">
@@ -3806,8 +3819,9 @@
       <c r="K70" t="s">
         <v>15</v>
       </c>
-      <c r="L70" s="3">
-        <v>42501</v>
+      <c r="L70" s="8">
+        <f t="shared" si="7"/>
+        <v>44211</v>
       </c>
       <c r="M70" t="s">
         <v>16</v>
@@ -3824,7 +3838,7 @@
         <v>42270</v>
       </c>
       <c r="C71" s="3">
-        <f>SUM(B71+1)</f>
+        <f t="shared" si="5"/>
         <v>42271</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3840,7 +3854,7 @@
         <v>6</v>
       </c>
       <c r="H71" s="5">
-        <f>SUM(F71*I71*-1)</f>
+        <f t="shared" si="6"/>
         <v>-391000</v>
       </c>
       <c r="I71">
@@ -3852,8 +3866,9 @@
       <c r="K71" t="s">
         <v>17</v>
       </c>
-      <c r="L71" s="3">
-        <v>42501</v>
+      <c r="L71" s="8">
+        <f t="shared" si="7"/>
+        <v>44098</v>
       </c>
       <c r="M71" t="s">
         <v>18</v>
@@ -3870,7 +3885,7 @@
         <v>42126</v>
       </c>
       <c r="C72" s="3">
-        <f>SUM(B72+1)</f>
+        <f t="shared" si="5"/>
         <v>42127</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -3886,7 +3901,7 @@
         <v>55</v>
       </c>
       <c r="H72" s="5">
-        <f>SUM(F72*I72*-1)</f>
+        <f t="shared" si="6"/>
         <v>-109622500</v>
       </c>
       <c r="I72">
@@ -3898,14 +3913,12 @@
       <c r="K72" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L72" s="8"/>
       <c r="M72" t="s">
         <v>16</v>
       </c>
       <c r="N72" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -3916,7 +3929,7 @@
         <v>42282</v>
       </c>
       <c r="C73" s="3">
-        <f>SUM(B73+1)</f>
+        <f t="shared" si="5"/>
         <v>42283</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3932,7 +3945,7 @@
         <v>6</v>
       </c>
       <c r="H73" s="5">
-        <f>SUM(F73*I73*-1)</f>
+        <f t="shared" si="6"/>
         <v>-7820</v>
       </c>
       <c r="I73">
@@ -3944,8 +3957,9 @@
       <c r="K73" t="s">
         <v>9</v>
       </c>
-      <c r="L73" s="3">
-        <v>42501</v>
+      <c r="L73" s="8">
+        <f t="shared" si="7"/>
+        <v>44110</v>
       </c>
       <c r="M73" t="s">
         <v>8</v>
@@ -3962,7 +3976,7 @@
         <v>42260</v>
       </c>
       <c r="C74" s="3">
-        <f>SUM(B74+1)</f>
+        <f t="shared" si="5"/>
         <v>42261</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -3978,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="H74" s="5">
-        <f>SUM(F74*I74*-1)</f>
+        <f t="shared" si="6"/>
         <v>-782000</v>
       </c>
       <c r="I74">
@@ -3990,8 +4004,9 @@
       <c r="K74" t="s">
         <v>15</v>
       </c>
-      <c r="L74" s="3">
-        <v>42501</v>
+      <c r="L74" s="8">
+        <f t="shared" si="7"/>
+        <v>44088</v>
       </c>
       <c r="M74" t="s">
         <v>32</v>
@@ -4008,7 +4023,7 @@
         <v>42297</v>
       </c>
       <c r="C75" s="3">
-        <f>SUM(B75+1)</f>
+        <f t="shared" si="5"/>
         <v>42298</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -4024,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="H75" s="5">
-        <f>SUM(F75*I75*-1)</f>
+        <f t="shared" si="6"/>
         <v>-782000</v>
       </c>
       <c r="I75">
@@ -4036,8 +4051,9 @@
       <c r="K75" t="s">
         <v>4</v>
       </c>
-      <c r="L75" s="3">
-        <v>42501</v>
+      <c r="L75" s="8">
+        <f t="shared" si="7"/>
+        <v>44125</v>
       </c>
       <c r="M75" t="s">
         <v>5</v>
@@ -4054,7 +4070,7 @@
         <v>42202</v>
       </c>
       <c r="C76" s="3">
-        <f>SUM(B76+1)</f>
+        <f t="shared" si="5"/>
         <v>42203</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4070,7 +4086,7 @@
         <v>6</v>
       </c>
       <c r="H76" s="5">
-        <f>SUM(F76*I76*-1)</f>
+        <f t="shared" si="6"/>
         <v>-1130400</v>
       </c>
       <c r="I76">
@@ -4082,8 +4098,9 @@
       <c r="K76" t="s">
         <v>15</v>
       </c>
-      <c r="L76" s="3">
-        <v>42501</v>
+      <c r="L76" s="8">
+        <f t="shared" si="7"/>
+        <v>44030</v>
       </c>
       <c r="M76" t="s">
         <v>16</v>
@@ -4100,7 +4117,7 @@
         <v>42282</v>
       </c>
       <c r="C77" s="3">
-        <f>SUM(B77+1)</f>
+        <f t="shared" si="5"/>
         <v>42283</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -4116,7 +4133,7 @@
         <v>6</v>
       </c>
       <c r="H77" s="5">
-        <f>SUM(F77*I77*-1)</f>
+        <f t="shared" si="6"/>
         <v>-39100000</v>
       </c>
       <c r="I77">
@@ -4128,8 +4145,9 @@
       <c r="K77" t="s">
         <v>19</v>
       </c>
-      <c r="L77" s="3">
-        <v>42501</v>
+      <c r="L77" s="8">
+        <f t="shared" si="7"/>
+        <v>44110</v>
       </c>
       <c r="M77" t="s">
         <v>22</v>
@@ -4146,7 +4164,7 @@
         <v>42037</v>
       </c>
       <c r="C78" s="3">
-        <f>SUM(B78+1)</f>
+        <f t="shared" si="5"/>
         <v>42038</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4162,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="H78" s="5">
-        <f>SUM(F78*I78*-1)</f>
+        <f t="shared" si="6"/>
         <v>-717600</v>
       </c>
       <c r="I78">
@@ -4174,14 +4192,12 @@
       <c r="K78" t="s">
         <v>19</v>
       </c>
-      <c r="L78" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L78" s="8"/>
       <c r="M78" t="s">
         <v>20</v>
       </c>
       <c r="N78" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4192,7 +4208,7 @@
         <v>42456</v>
       </c>
       <c r="C79" s="3">
-        <f>SUM(B79+1)</f>
+        <f t="shared" si="5"/>
         <v>42457</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -4208,7 +4224,7 @@
         <v>56</v>
       </c>
       <c r="H79" s="5">
-        <f>SUM(F79*I79*-1)</f>
+        <f t="shared" si="6"/>
         <v>12635</v>
       </c>
       <c r="I79">
@@ -4220,8 +4236,9 @@
       <c r="K79" t="s">
         <v>33</v>
       </c>
-      <c r="L79" s="3">
-        <v>42501</v>
+      <c r="L79" s="8">
+        <f t="shared" si="7"/>
+        <v>44283</v>
       </c>
       <c r="M79" t="s">
         <v>34</v>
@@ -4238,7 +4255,7 @@
         <v>42327</v>
       </c>
       <c r="C80" s="3">
-        <f>SUM(B80+1)</f>
+        <f t="shared" si="5"/>
         <v>42328</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -4254,7 +4271,7 @@
         <v>6</v>
       </c>
       <c r="H80" s="5">
-        <f>SUM(F80*I80*-1)</f>
+        <f t="shared" si="6"/>
         <v>39100000</v>
       </c>
       <c r="I80">
@@ -4266,8 +4283,9 @@
       <c r="K80" t="s">
         <v>13</v>
       </c>
-      <c r="L80" s="3">
-        <v>42501</v>
+      <c r="L80" s="8">
+        <f t="shared" si="7"/>
+        <v>44155</v>
       </c>
       <c r="M80" t="s">
         <v>14</v>
@@ -4284,7 +4302,7 @@
         <v>42337</v>
       </c>
       <c r="C81" s="3">
-        <f>SUM(B81+1)</f>
+        <f t="shared" si="5"/>
         <v>42338</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -4300,7 +4318,7 @@
         <v>41</v>
       </c>
       <c r="H81" s="5">
-        <f>SUM(F81*I81*-1)</f>
+        <f t="shared" si="6"/>
         <v>7876</v>
       </c>
       <c r="I81">
@@ -4312,8 +4330,9 @@
       <c r="K81" t="s">
         <v>33</v>
       </c>
-      <c r="L81" s="3">
-        <v>42501</v>
+      <c r="L81" s="8">
+        <f t="shared" si="7"/>
+        <v>44165</v>
       </c>
       <c r="M81" t="s">
         <v>34</v>
@@ -4330,7 +4349,7 @@
         <v>42482</v>
       </c>
       <c r="C82" s="3">
-        <f>SUM(B82+1)</f>
+        <f t="shared" si="5"/>
         <v>42483</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -4346,7 +4365,7 @@
         <v>56</v>
       </c>
       <c r="H82" s="5">
-        <f>SUM(F82*I82*-1)</f>
+        <f t="shared" si="6"/>
         <v>75000000</v>
       </c>
       <c r="I82">
@@ -4358,8 +4377,9 @@
       <c r="K82" t="s">
         <v>21</v>
       </c>
-      <c r="L82" s="3">
-        <v>42501</v>
+      <c r="L82" s="8">
+        <f t="shared" si="7"/>
+        <v>44309</v>
       </c>
       <c r="M82" t="s">
         <v>30</v>
@@ -4376,7 +4396,7 @@
         <v>42325</v>
       </c>
       <c r="C83" s="3">
-        <f>SUM(B83+1)</f>
+        <f t="shared" si="5"/>
         <v>42326</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -4392,7 +4412,7 @@
         <v>6</v>
       </c>
       <c r="H83" s="5">
-        <f>SUM(F83*I83*-1)</f>
+        <f t="shared" si="6"/>
         <v>-782000</v>
       </c>
       <c r="I83">
@@ -4404,8 +4424,9 @@
       <c r="K83" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="3">
-        <v>42501</v>
+      <c r="L83" s="8">
+        <f t="shared" si="7"/>
+        <v>44153</v>
       </c>
       <c r="M83" t="s">
         <v>32</v>
@@ -4422,7 +4443,7 @@
         <v>42068</v>
       </c>
       <c r="C84" s="3">
-        <f>SUM(B84+1)</f>
+        <f t="shared" si="5"/>
         <v>42069</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -4438,7 +4459,7 @@
         <v>6</v>
       </c>
       <c r="H84" s="5">
-        <f>SUM(F84*I84*-1)</f>
+        <f t="shared" si="6"/>
         <v>-14352</v>
       </c>
       <c r="I84">
@@ -4450,14 +4471,12 @@
       <c r="K84" t="s">
         <v>33</v>
       </c>
-      <c r="L84" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L84" s="8"/>
       <c r="M84" t="s">
         <v>35</v>
       </c>
       <c r="N84" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4468,7 +4487,7 @@
         <v>42130</v>
       </c>
       <c r="C85" s="3">
-        <f>SUM(B85+1)</f>
+        <f t="shared" si="5"/>
         <v>42131</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -4484,7 +4503,7 @@
         <v>55</v>
       </c>
       <c r="H85" s="5">
-        <f>SUM(F85*I85*-1)</f>
+        <f t="shared" si="6"/>
         <v>-109622500</v>
       </c>
       <c r="I85">
@@ -4496,14 +4515,12 @@
       <c r="K85" t="s">
         <v>11</v>
       </c>
-      <c r="L85" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L85" s="8"/>
       <c r="M85" t="s">
         <v>12</v>
       </c>
       <c r="N85" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4514,7 +4531,7 @@
         <v>42334</v>
       </c>
       <c r="C86" s="3">
-        <f>SUM(B86+1)</f>
+        <f t="shared" si="5"/>
         <v>42335</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -4530,7 +4547,7 @@
         <v>6</v>
       </c>
       <c r="H86" s="5">
-        <f>SUM(F86*I86*-1)</f>
+        <f t="shared" si="6"/>
         <v>717600</v>
       </c>
       <c r="I86">
@@ -4542,8 +4559,9 @@
       <c r="K86" t="s">
         <v>17</v>
       </c>
-      <c r="L86" s="3">
-        <v>42501</v>
+      <c r="L86" s="8">
+        <f t="shared" si="7"/>
+        <v>44162</v>
       </c>
       <c r="M86" t="s">
         <v>18</v>
@@ -4560,7 +4578,7 @@
         <v>42088</v>
       </c>
       <c r="C87" s="3">
-        <f>SUM(B87+1)</f>
+        <f t="shared" si="5"/>
         <v>42089</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -4576,7 +4594,7 @@
         <v>55</v>
       </c>
       <c r="H87" s="5">
-        <f>SUM(F87*I87*-1)</f>
+        <f t="shared" si="6"/>
         <v>-1239075</v>
       </c>
       <c r="I87">
@@ -4588,14 +4606,12 @@
       <c r="K87" t="s">
         <v>39</v>
       </c>
-      <c r="L87" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L87" s="8"/>
       <c r="M87" t="s">
         <v>40</v>
       </c>
       <c r="N87" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -4606,7 +4622,7 @@
         <v>42122</v>
       </c>
       <c r="C88" s="3">
-        <f>SUM(B88+1)</f>
+        <f t="shared" si="5"/>
         <v>42123</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -4622,7 +4638,7 @@
         <v>55</v>
       </c>
       <c r="H88" s="5">
-        <f>SUM(F88*I88*-1)</f>
+        <f t="shared" si="6"/>
         <v>-1239075</v>
       </c>
       <c r="I88">
@@ -4634,14 +4650,12 @@
       <c r="K88" t="s">
         <v>39</v>
       </c>
-      <c r="L88" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L88" s="8"/>
       <c r="M88" t="s">
         <v>40</v>
       </c>
       <c r="N88" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4652,7 +4666,7 @@
         <v>42472</v>
       </c>
       <c r="C89" s="3">
-        <f>SUM(B89+1)</f>
+        <f t="shared" si="5"/>
         <v>42473</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -4668,7 +4682,7 @@
         <v>43</v>
       </c>
       <c r="H89" s="5">
-        <f>SUM(F89*I89*-1)</f>
+        <f t="shared" si="6"/>
         <v>970300</v>
       </c>
       <c r="I89">
@@ -4680,8 +4694,9 @@
       <c r="K89" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="3">
-        <v>42501</v>
+      <c r="L89" s="8">
+        <f t="shared" si="7"/>
+        <v>44299</v>
       </c>
       <c r="M89" t="s">
         <v>5</v>
@@ -4698,7 +4713,7 @@
         <v>42069</v>
       </c>
       <c r="C90" s="3">
-        <f>SUM(B90+1)</f>
+        <f t="shared" si="5"/>
         <v>42070</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -4714,7 +4729,7 @@
         <v>6</v>
       </c>
       <c r="H90" s="5">
-        <f>SUM(F90*I90*-1)</f>
+        <f t="shared" si="6"/>
         <v>-71760000</v>
       </c>
       <c r="I90">
@@ -4726,14 +4741,12 @@
       <c r="K90" t="s">
         <v>29</v>
       </c>
-      <c r="L90" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L90" s="8"/>
       <c r="M90" t="s">
         <v>38</v>
       </c>
       <c r="N90" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -4744,7 +4757,7 @@
         <v>42390</v>
       </c>
       <c r="C91" s="3">
-        <f>SUM(B91+1)</f>
+        <f t="shared" si="5"/>
         <v>42391</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -4760,7 +4773,7 @@
         <v>41</v>
       </c>
       <c r="H91" s="5">
-        <f>SUM(F91*I91*-1)</f>
+        <f t="shared" si="6"/>
         <v>39380000</v>
       </c>
       <c r="I91">
@@ -4772,8 +4785,9 @@
       <c r="K91" t="s">
         <v>13</v>
       </c>
-      <c r="L91" s="3">
-        <v>42501</v>
+      <c r="L91" s="8">
+        <f t="shared" si="7"/>
+        <v>44218</v>
       </c>
       <c r="M91" t="s">
         <v>31</v>
@@ -4790,7 +4804,7 @@
         <v>42472</v>
       </c>
       <c r="C92" s="3">
-        <f>SUM(B92+1)</f>
+        <f t="shared" si="5"/>
         <v>42473</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -4806,7 +4820,7 @@
         <v>43</v>
       </c>
       <c r="H92" s="5">
-        <f>SUM(F92*I92*-1)</f>
+        <f t="shared" si="6"/>
         <v>9703</v>
       </c>
       <c r="I92">
@@ -4818,8 +4832,9 @@
       <c r="K92" t="s">
         <v>9</v>
       </c>
-      <c r="L92" s="3">
-        <v>42501</v>
+      <c r="L92" s="8">
+        <f t="shared" si="7"/>
+        <v>44299</v>
       </c>
       <c r="M92" t="s">
         <v>8</v>
@@ -4836,7 +4851,7 @@
         <v>42058</v>
       </c>
       <c r="C93" s="3">
-        <f>SUM(B93+1)</f>
+        <f t="shared" si="5"/>
         <v>42059</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -4852,7 +4867,7 @@
         <v>6</v>
       </c>
       <c r="H93" s="5">
-        <f>SUM(F93*I93*-1)</f>
+        <f t="shared" si="6"/>
         <v>-1435200</v>
       </c>
       <c r="I93">
@@ -4864,14 +4879,12 @@
       <c r="K93" t="s">
         <v>11</v>
       </c>
-      <c r="L93" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L93" s="8"/>
       <c r="M93" t="s">
         <v>12</v>
       </c>
       <c r="N93" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -4882,7 +4895,7 @@
         <v>42261</v>
       </c>
       <c r="C94" s="3">
-        <f>SUM(B94+1)</f>
+        <f t="shared" si="5"/>
         <v>42262</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -4898,7 +4911,7 @@
         <v>6</v>
       </c>
       <c r="H94" s="5">
-        <f>SUM(F94*I94*-1)</f>
+        <f t="shared" si="6"/>
         <v>-1435200</v>
       </c>
       <c r="I94">
@@ -4910,8 +4923,9 @@
       <c r="K94" t="s">
         <v>25</v>
       </c>
-      <c r="L94" s="3">
-        <v>42501</v>
+      <c r="L94" s="8">
+        <f t="shared" si="7"/>
+        <v>44089</v>
       </c>
       <c r="M94" t="s">
         <v>32</v>
@@ -4928,7 +4942,7 @@
         <v>42195</v>
       </c>
       <c r="C95" s="3">
-        <f>SUM(B95+1)</f>
+        <f t="shared" si="5"/>
         <v>42196</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -4944,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="H95" s="5">
-        <f>SUM(F95*I95*-1)</f>
+        <f t="shared" si="6"/>
         <v>-565200</v>
       </c>
       <c r="I95">
@@ -4956,8 +4970,9 @@
       <c r="K95" t="s">
         <v>19</v>
       </c>
-      <c r="L95" s="3">
-        <v>42501</v>
+      <c r="L95" s="8">
+        <f t="shared" si="7"/>
+        <v>44023</v>
       </c>
       <c r="M95" t="s">
         <v>20</v>
@@ -4974,7 +4989,7 @@
         <v>42039</v>
       </c>
       <c r="C96" s="3">
-        <f>SUM(B96+1)</f>
+        <f t="shared" si="5"/>
         <v>42040</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -4990,7 +5005,7 @@
         <v>6</v>
       </c>
       <c r="H96" s="5">
-        <f>SUM(F96*I96*-1)</f>
+        <f t="shared" si="6"/>
         <v>-14352</v>
       </c>
       <c r="I96">
@@ -5002,14 +5017,12 @@
       <c r="K96" t="s">
         <v>27</v>
       </c>
-      <c r="L96" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L96" s="8"/>
       <c r="M96" t="s">
         <v>28</v>
       </c>
       <c r="N96" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -5020,7 +5033,7 @@
         <v>42414</v>
       </c>
       <c r="C97" s="3">
-        <f>SUM(B97+1)</f>
+        <f t="shared" si="5"/>
         <v>42415</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -5036,7 +5049,7 @@
         <v>41</v>
       </c>
       <c r="H97" s="5">
-        <f>SUM(F97*I97*-1)</f>
+        <f t="shared" si="6"/>
         <v>787600</v>
       </c>
       <c r="I97">
@@ -5048,8 +5061,9 @@
       <c r="K97" t="s">
         <v>4</v>
       </c>
-      <c r="L97" s="3">
-        <v>42501</v>
+      <c r="L97" s="8">
+        <f t="shared" si="7"/>
+        <v>44242</v>
       </c>
       <c r="M97" t="s">
         <v>5</v>
@@ -5066,7 +5080,7 @@
         <v>42345</v>
       </c>
       <c r="C98" s="3">
-        <f>SUM(B98+1)</f>
+        <f t="shared" ref="C98:C129" si="8">SUM(B98+1)</f>
         <v>42346</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -5082,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="H98" s="5">
-        <f>SUM(F98*I98*-1)</f>
+        <f t="shared" ref="H98:H129" si="9">SUM(F98*I98*-1)</f>
         <v>787600</v>
       </c>
       <c r="I98">
@@ -5094,8 +5108,9 @@
       <c r="K98" t="s">
         <v>4</v>
       </c>
-      <c r="L98" s="3">
-        <v>42501</v>
+      <c r="L98" s="8">
+        <f t="shared" si="7"/>
+        <v>44173</v>
       </c>
       <c r="M98" t="s">
         <v>5</v>
@@ -5112,7 +5127,7 @@
         <v>42124</v>
       </c>
       <c r="C99" s="3">
-        <f>SUM(B99+1)</f>
+        <f t="shared" si="8"/>
         <v>42125</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -5128,7 +5143,7 @@
         <v>55</v>
       </c>
       <c r="H99" s="5">
-        <f>SUM(F99*I99*-1)</f>
+        <f t="shared" si="9"/>
         <v>-6195375000</v>
       </c>
       <c r="I99">
@@ -5140,14 +5155,12 @@
       <c r="K99" t="s">
         <v>19</v>
       </c>
-      <c r="L99" s="3">
-        <v>42501</v>
-      </c>
+      <c r="L99" s="8"/>
       <c r="M99" t="s">
         <v>22</v>
       </c>
       <c r="N99" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -5158,7 +5171,7 @@
         <v>42420</v>
       </c>
       <c r="C100" s="3">
-        <f>SUM(B100+1)</f>
+        <f t="shared" si="8"/>
         <v>42421</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -5174,7 +5187,7 @@
         <v>43</v>
       </c>
       <c r="H100" s="5">
-        <f>SUM(F100*I100*-1)</f>
+        <f t="shared" si="9"/>
         <v>48515000</v>
       </c>
       <c r="I100">
@@ -5186,8 +5199,9 @@
       <c r="K100" t="s">
         <v>21</v>
       </c>
-      <c r="L100" s="3">
-        <v>42501</v>
+      <c r="L100" s="8">
+        <f t="shared" si="7"/>
+        <v>44248</v>
       </c>
       <c r="M100" t="s">
         <v>30</v>
@@ -5204,7 +5218,7 @@
         <v>42489</v>
       </c>
       <c r="C101" s="3">
-        <f>SUM(B101+1)</f>
+        <f t="shared" si="8"/>
         <v>42490</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -5220,7 +5234,7 @@
         <v>43</v>
       </c>
       <c r="H101" s="5">
-        <f>SUM(F101*I101*-1)</f>
+        <f t="shared" si="9"/>
         <v>48515000</v>
       </c>
       <c r="I101">
@@ -5232,8 +5246,9 @@
       <c r="K101" t="s">
         <v>19</v>
       </c>
-      <c r="L101" s="3">
-        <v>42501</v>
+      <c r="L101" s="8">
+        <f t="shared" si="7"/>
+        <v>44316</v>
       </c>
       <c r="M101" t="s">
         <v>22</v>
@@ -5250,7 +5265,7 @@
         <v>42504</v>
       </c>
       <c r="C102" s="3">
-        <f>SUM(B102+1)</f>
+        <f t="shared" si="8"/>
         <v>42505</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -5266,7 +5281,7 @@
         <v>6</v>
       </c>
       <c r="H102" s="5">
-        <f>SUM(F102*I102*-1)</f>
+        <f t="shared" si="9"/>
         <v>56520000</v>
       </c>
       <c r="I102">
@@ -5278,8 +5293,9 @@
       <c r="K102" t="s">
         <v>21</v>
       </c>
-      <c r="L102" s="3">
-        <v>42509</v>
+      <c r="L102" s="8">
+        <f t="shared" si="7"/>
+        <v>44331</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
@@ -5296,7 +5312,7 @@
         <v>42513</v>
       </c>
       <c r="C103" s="3">
-        <f>SUM(B103+1)</f>
+        <f t="shared" si="8"/>
         <v>42514</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5312,7 +5328,7 @@
         <v>6</v>
       </c>
       <c r="H103" s="5">
-        <f>SUM(F103*I103*-1)</f>
+        <f t="shared" si="9"/>
         <v>-1435200</v>
       </c>
       <c r="I103">
@@ -5324,14 +5340,12 @@
       <c r="K103" t="s">
         <v>36</v>
       </c>
-      <c r="L103" s="3">
-        <v>42509</v>
-      </c>
+      <c r="L103" s="8"/>
       <c r="M103" t="s">
         <v>37</v>
       </c>
       <c r="N103" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -5342,7 +5356,7 @@
         <v>42519</v>
       </c>
       <c r="C104" s="3">
-        <f>SUM(B104+1)</f>
+        <f t="shared" si="8"/>
         <v>42520</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -5358,7 +5372,7 @@
         <v>6</v>
       </c>
       <c r="H104" s="5">
-        <f>SUM(F104*I104*-1)</f>
+        <f t="shared" si="9"/>
         <v>-14352</v>
       </c>
       <c r="I104">
@@ -5370,14 +5384,12 @@
       <c r="K104" t="s">
         <v>39</v>
       </c>
-      <c r="L104" s="3">
-        <v>42509</v>
-      </c>
+      <c r="L104" s="8"/>
       <c r="M104" t="s">
         <v>40</v>
       </c>
       <c r="N104" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -5388,7 +5400,7 @@
         <v>42532</v>
       </c>
       <c r="C105" s="3">
-        <f>SUM(B105+1)</f>
+        <f t="shared" si="8"/>
         <v>42533</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -5404,7 +5416,7 @@
         <v>55</v>
       </c>
       <c r="H105" s="5">
-        <f>SUM(F105*I105*-1)</f>
+        <f t="shared" si="9"/>
         <v>1239075</v>
       </c>
       <c r="I105">
@@ -5416,8 +5428,9 @@
       <c r="K105" t="s">
         <v>33</v>
       </c>
-      <c r="L105" s="3">
-        <v>42509</v>
+      <c r="L105" s="8">
+        <f t="shared" si="7"/>
+        <v>44359</v>
       </c>
       <c r="M105" t="s">
         <v>34</v>
@@ -5434,7 +5447,7 @@
         <v>42572</v>
       </c>
       <c r="C106" s="3">
-        <f>SUM(B106+1)</f>
+        <f t="shared" si="8"/>
         <v>42573</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -5450,7 +5463,7 @@
         <v>41</v>
       </c>
       <c r="H106" s="5">
-        <f>SUM(F106*I106*-1)</f>
+        <f t="shared" si="9"/>
         <v>39380000</v>
       </c>
       <c r="I106">
@@ -5462,8 +5475,9 @@
       <c r="K106" t="s">
         <v>19</v>
       </c>
-      <c r="L106" s="3">
-        <v>42509</v>
+      <c r="L106" s="8">
+        <f t="shared" si="7"/>
+        <v>44399</v>
       </c>
       <c r="M106" t="s">
         <v>22</v>
@@ -5480,7 +5494,7 @@
         <v>42586</v>
       </c>
       <c r="C107" s="3">
-        <f>SUM(B107+1)</f>
+        <f t="shared" si="8"/>
         <v>42587</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -5496,7 +5510,7 @@
         <v>6</v>
       </c>
       <c r="H107" s="5">
-        <f>SUM(F107*I107*-1)</f>
+        <f t="shared" si="9"/>
         <v>-56520000</v>
       </c>
       <c r="I107">
@@ -5508,8 +5522,9 @@
       <c r="K107" t="s">
         <v>19</v>
       </c>
-      <c r="L107" s="3">
-        <v>42509</v>
+      <c r="L107" s="8">
+        <f t="shared" si="7"/>
+        <v>44413</v>
       </c>
       <c r="M107" t="s">
         <v>22</v>
@@ -5526,7 +5541,7 @@
         <v>42593</v>
       </c>
       <c r="C108" s="3">
-        <f>SUM(B108+1)</f>
+        <f t="shared" si="8"/>
         <v>42594</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -5542,7 +5557,7 @@
         <v>6</v>
       </c>
       <c r="H108" s="5">
-        <f>SUM(F108*I108*-1)</f>
+        <f t="shared" si="9"/>
         <v>-717600</v>
       </c>
       <c r="I108">
@@ -5554,14 +5569,12 @@
       <c r="K108" t="s">
         <v>17</v>
       </c>
-      <c r="L108" s="3">
-        <v>42509</v>
-      </c>
+      <c r="L108" s="8"/>
       <c r="M108" t="s">
         <v>18</v>
       </c>
       <c r="N108" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -5572,7 +5585,7 @@
         <v>42634</v>
       </c>
       <c r="C109" s="3">
-        <f>SUM(B109+1)</f>
+        <f t="shared" si="8"/>
         <v>42635</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -5588,7 +5601,7 @@
         <v>6</v>
       </c>
       <c r="H109" s="5">
-        <f>SUM(F109*I109*-1)</f>
+        <f t="shared" si="9"/>
         <v>-565200</v>
       </c>
       <c r="I109">
@@ -5600,8 +5613,9 @@
       <c r="K109" t="s">
         <v>23</v>
       </c>
-      <c r="L109" s="3">
-        <v>42509</v>
+      <c r="L109" s="8">
+        <f t="shared" si="7"/>
+        <v>44461</v>
       </c>
       <c r="M109" t="s">
         <v>24</v>
@@ -5618,7 +5632,7 @@
         <v>42654</v>
       </c>
       <c r="C110" s="3">
-        <f>SUM(B110+1)</f>
+        <f t="shared" si="8"/>
         <v>42655</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -5634,7 +5648,7 @@
         <v>6</v>
       </c>
       <c r="H110" s="5">
-        <f>SUM(F110*I110*-1)</f>
+        <f t="shared" si="9"/>
         <v>-1130400</v>
       </c>
       <c r="I110">
@@ -5646,8 +5660,9 @@
       <c r="K110" t="s">
         <v>4</v>
       </c>
-      <c r="L110" s="3">
-        <v>42509</v>
+      <c r="L110" s="8">
+        <f t="shared" si="7"/>
+        <v>44481</v>
       </c>
       <c r="M110" t="s">
         <v>5</v>
@@ -5664,7 +5679,7 @@
         <v>42662</v>
       </c>
       <c r="C111" s="3">
-        <f>SUM(B111+1)</f>
+        <f t="shared" si="8"/>
         <v>42663</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -5680,7 +5695,7 @@
         <v>41</v>
       </c>
       <c r="H111" s="5">
-        <f>SUM(F111*I111*-1)</f>
+        <f t="shared" si="9"/>
         <v>787600</v>
       </c>
       <c r="I111">
@@ -5692,8 +5707,9 @@
       <c r="K111" t="s">
         <v>36</v>
       </c>
-      <c r="L111" s="3">
-        <v>42509</v>
+      <c r="L111" s="8">
+        <f t="shared" si="7"/>
+        <v>44489</v>
       </c>
       <c r="M111" t="s">
         <v>37</v>
@@ -5710,7 +5726,7 @@
         <v>42674</v>
       </c>
       <c r="C112" s="3">
-        <f>SUM(B112+1)</f>
+        <f t="shared" si="8"/>
         <v>42675</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -5726,7 +5742,7 @@
         <v>41</v>
       </c>
       <c r="H112" s="5">
-        <f>SUM(F112*I112*-1)</f>
+        <f t="shared" si="9"/>
         <v>7876</v>
       </c>
       <c r="I112">
@@ -5738,8 +5754,9 @@
       <c r="K112" t="s">
         <v>27</v>
       </c>
-      <c r="L112" s="3">
-        <v>42509</v>
+      <c r="L112" s="8">
+        <f t="shared" si="7"/>
+        <v>44501</v>
       </c>
       <c r="M112" t="s">
         <v>35</v>
@@ -5756,7 +5773,7 @@
         <v>42679</v>
       </c>
       <c r="C113" s="3">
-        <f>SUM(B113+1)</f>
+        <f t="shared" si="8"/>
         <v>42680</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -5772,7 +5789,7 @@
         <v>6</v>
       </c>
       <c r="H113" s="5">
-        <f>SUM(F113*I113*-1)</f>
+        <f t="shared" si="9"/>
         <v>-11304</v>
       </c>
       <c r="I113">
@@ -5784,8 +5801,9 @@
       <c r="K113" t="s">
         <v>7</v>
       </c>
-      <c r="L113" s="3">
-        <v>42509</v>
+      <c r="L113" s="8">
+        <f t="shared" si="7"/>
+        <v>44506</v>
       </c>
       <c r="M113" t="s">
         <v>8</v>
@@ -5802,7 +5820,7 @@
         <v>42688</v>
       </c>
       <c r="C114" s="3">
-        <f>SUM(B114+1)</f>
+        <f t="shared" si="8"/>
         <v>42689</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -5818,7 +5836,7 @@
         <v>6</v>
       </c>
       <c r="H114" s="5">
-        <f>SUM(F114*I114*-1)</f>
+        <f t="shared" si="9"/>
         <v>-648100</v>
       </c>
       <c r="I114">
@@ -5830,8 +5848,9 @@
       <c r="K114" t="s">
         <v>9</v>
       </c>
-      <c r="L114" s="3">
-        <v>42509</v>
+      <c r="L114" s="8">
+        <f t="shared" si="7"/>
+        <v>44515</v>
       </c>
       <c r="M114" t="s">
         <v>10</v>
@@ -5848,7 +5867,7 @@
         <v>42703</v>
       </c>
       <c r="C115" s="3">
-        <f>SUM(B115+1)</f>
+        <f t="shared" si="8"/>
         <v>42704</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -5864,7 +5883,7 @@
         <v>41</v>
       </c>
       <c r="H115" s="5">
-        <f>SUM(F115*I115*-1)</f>
+        <f t="shared" si="9"/>
         <v>393800</v>
       </c>
       <c r="I115">
@@ -5876,8 +5895,9 @@
       <c r="K115" t="s">
         <v>9</v>
       </c>
-      <c r="L115" s="3">
-        <v>42509</v>
+      <c r="L115" s="8">
+        <f t="shared" si="7"/>
+        <v>44530</v>
       </c>
       <c r="M115" t="s">
         <v>10</v>
@@ -5894,7 +5914,7 @@
         <v>42708</v>
       </c>
       <c r="C116" s="3">
-        <f>SUM(B116+1)</f>
+        <f t="shared" si="8"/>
         <v>42709</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -5910,7 +5930,7 @@
         <v>6</v>
       </c>
       <c r="H116" s="5">
-        <f>SUM(F116*I116*-1)</f>
+        <f t="shared" si="9"/>
         <v>-717600</v>
       </c>
       <c r="I116">
@@ -5922,14 +5942,12 @@
       <c r="K116" t="s">
         <v>23</v>
       </c>
-      <c r="L116" s="3">
-        <v>42509</v>
-      </c>
+      <c r="L116" s="8"/>
       <c r="M116" t="s">
         <v>26</v>
       </c>
       <c r="N116" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -5940,7 +5958,7 @@
         <v>42716</v>
       </c>
       <c r="C117" s="3">
-        <f>SUM(B117+1)</f>
+        <f t="shared" si="8"/>
         <v>42717</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -5956,7 +5974,7 @@
         <v>41</v>
       </c>
       <c r="H117" s="5">
-        <f>SUM(F117*I117*-1)</f>
+        <f t="shared" si="9"/>
         <v>986500</v>
       </c>
       <c r="I117">
@@ -5968,8 +5986,9 @@
       <c r="K117" t="s">
         <v>4</v>
       </c>
-      <c r="L117" s="3">
-        <v>42509</v>
+      <c r="L117" s="8">
+        <f t="shared" si="7"/>
+        <v>44543</v>
       </c>
       <c r="M117" t="s">
         <v>5</v>
@@ -5986,7 +6005,7 @@
         <v>42723</v>
       </c>
       <c r="C118" s="3">
-        <f>SUM(B118+1)</f>
+        <f t="shared" si="8"/>
         <v>42724</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -6002,7 +6021,7 @@
         <v>55</v>
       </c>
       <c r="H118" s="5">
-        <f>SUM(F118*I118*-1)</f>
+        <f t="shared" si="9"/>
         <v>6195375000</v>
       </c>
       <c r="I118">
@@ -6014,8 +6033,9 @@
       <c r="K118" t="s">
         <v>13</v>
       </c>
-      <c r="L118" s="3">
-        <v>42509</v>
+      <c r="L118" s="8">
+        <f t="shared" si="7"/>
+        <v>44550</v>
       </c>
       <c r="M118" t="s">
         <v>31</v>
@@ -6032,7 +6052,7 @@
         <v>42739</v>
       </c>
       <c r="C119" s="3">
-        <f>SUM(B119+1)</f>
+        <f t="shared" si="8"/>
         <v>42740</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -6048,7 +6068,7 @@
         <v>41</v>
       </c>
       <c r="H119" s="5">
-        <f>SUM(F119*I119*-1)</f>
+        <f t="shared" si="9"/>
         <v>7876</v>
       </c>
       <c r="I119">
@@ -6060,8 +6080,9 @@
       <c r="K119" t="s">
         <v>27</v>
       </c>
-      <c r="L119" s="3">
-        <v>42509</v>
+      <c r="L119" s="8">
+        <f t="shared" si="7"/>
+        <v>44566</v>
       </c>
       <c r="M119" t="s">
         <v>28</v>
@@ -6078,7 +6099,7 @@
         <v>42754</v>
       </c>
       <c r="C120" s="3">
-        <f>SUM(B120+1)</f>
+        <f t="shared" si="8"/>
         <v>42755</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -6094,7 +6115,7 @@
         <v>55</v>
       </c>
       <c r="H120" s="5">
-        <f>SUM(F120*I120*-1)</f>
+        <f t="shared" si="9"/>
         <v>6078445000</v>
       </c>
       <c r="I120">
@@ -6106,8 +6127,9 @@
       <c r="K120" t="s">
         <v>29</v>
       </c>
-      <c r="L120" s="3">
-        <v>42517</v>
+      <c r="L120" s="8">
+        <f t="shared" si="7"/>
+        <v>44581</v>
       </c>
       <c r="M120" t="s">
         <v>30</v>
@@ -6124,7 +6146,7 @@
         <v>42777</v>
       </c>
       <c r="C121" s="3">
-        <f>SUM(B121+1)</f>
+        <f t="shared" si="8"/>
         <v>42778</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -6140,7 +6162,7 @@
         <v>55</v>
       </c>
       <c r="H121" s="5">
-        <f>SUM(F121*I121*-1)</f>
+        <f t="shared" si="9"/>
         <v>-5481125000</v>
       </c>
       <c r="I121">
@@ -6152,14 +6174,12 @@
       <c r="K121" t="s">
         <v>13</v>
       </c>
-      <c r="L121" s="3">
-        <v>42517</v>
-      </c>
+      <c r="L121" s="8"/>
       <c r="M121" t="s">
         <v>31</v>
       </c>
       <c r="N121" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -6170,7 +6190,7 @@
         <v>42811</v>
       </c>
       <c r="C122" s="3">
-        <f>SUM(B122+1)</f>
+        <f t="shared" si="8"/>
         <v>42812</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -6186,7 +6206,7 @@
         <v>55</v>
       </c>
       <c r="H122" s="5">
-        <f>SUM(F122*I122*-1)</f>
+        <f t="shared" si="9"/>
         <v>-5466280000</v>
       </c>
       <c r="I122">
@@ -6198,14 +6218,12 @@
       <c r="K122" t="s">
         <v>13</v>
       </c>
-      <c r="L122" s="3">
-        <v>42517</v>
-      </c>
+      <c r="L122" s="8"/>
       <c r="M122" t="s">
         <v>14</v>
       </c>
       <c r="N122" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -6216,7 +6234,7 @@
         <v>42844</v>
       </c>
       <c r="C123" s="3">
-        <f>SUM(B123+1)</f>
+        <f t="shared" si="8"/>
         <v>42845</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -6232,7 +6250,7 @@
         <v>55</v>
       </c>
       <c r="H123" s="5">
-        <f>SUM(F123*I123*-1)</f>
+        <f t="shared" si="9"/>
         <v>-1076548</v>
       </c>
       <c r="I123">
@@ -6244,14 +6262,12 @@
       <c r="K123" t="s">
         <v>7</v>
       </c>
-      <c r="L123" s="3">
-        <v>42517</v>
-      </c>
+      <c r="L123" s="8"/>
       <c r="M123" t="s">
         <v>8</v>
       </c>
       <c r="N123" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
